--- a/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
+++ b/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majka\OneDrive\Pulpit\AGH\5 semestr\Systemy Wspomagania Decyzji\ZZZ_copy\Projekt_zaliczeniowy_copy\dataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\STUDIA\Systemy wspomagania decyzji\Projekt\SWD\Projekt_zaliczeniowy\dataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1193B-157A-42D3-9AB7-6C560A7B0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B19E798-9B3D-43EC-8478-D3621F92076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16200" windowWidth="23175" windowHeight="8355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,126 +83,66 @@
     <t>Tatry Wysokie</t>
   </si>
   <si>
-    <t>Palenica Białczańska – Morskie Oko – Czarny Staw – Bula pod Rysami – Rysy</t>
-  </si>
-  <si>
     <t>Kasprowy Wierch</t>
   </si>
   <si>
     <t>Tatry Zachodnie</t>
   </si>
   <si>
-    <t>Kuźnice - leśniczówka, Myślenickie Turnie - Kasprowy Wierch</t>
-  </si>
-  <si>
     <t>Giewont</t>
   </si>
   <si>
-    <t>Kuźnice – Kalatówki – Hala Kondratowa – Kondracka Przełęcz – Wyżnia Kondracka Przełęcz – Giewont</t>
-  </si>
-  <si>
     <t>Lomnica</t>
   </si>
   <si>
-    <t>Tatrzańska Łomnica - Łomnicka Przełęcz - Łomnicka Kopa - Łomnica Staw</t>
-  </si>
-  <si>
     <t>Świnica</t>
   </si>
   <si>
-    <t>Kuźnice - Potok Bystra - Przełęcz między Kopami (Karczmisko) - Zielony Staw Gąsienicowy - Świnica</t>
-  </si>
-  <si>
     <t>Kościelec</t>
   </si>
   <si>
-    <t>Kuźnice – Boczań – Przełęcz między Kopami – Schronisko PTTK Murowaniec – Czarny Staw Gąsienicowy – Karb – Kościelec</t>
-  </si>
-  <si>
     <t>Lodowy Szczyt</t>
   </si>
   <si>
-    <t>Stary Smokowiec - Smokowieckie Siodełko - Rainerowa Chata - Schronisko Zamkowskie - Schronisko Tery'ego - Lodowy Szczyt</t>
-  </si>
-  <si>
     <t>Mały Gerlach</t>
   </si>
   <si>
-    <t xml:space="preserve">Tatrzańska Polanka - Śląski Dom - Mały Gerlach </t>
-  </si>
-  <si>
     <t>Durny Szczyt</t>
   </si>
   <si>
-    <t>Chata Teryego - Mała Durna Przełęcz - Mały Durny Sczyt - Durna Przełęcz - Durny Szczyt</t>
-  </si>
-  <si>
     <t>Krywań</t>
   </si>
   <si>
-    <t>Byvala Vazecka chata – Tri studnicky – Krivansky zlab – Maly Krywań – Krywań</t>
-  </si>
-  <si>
     <t>Dolina za Mnichem</t>
   </si>
   <si>
-    <t>Morskie Oko - Mnichowy Potok - Mnich</t>
-  </si>
-  <si>
     <t>Wołowiec</t>
   </si>
   <si>
-    <t>Siwa Polana - Wyżnia Brama Chochołowska - Schronisko na Polanie Chochołowskiej - Bobrowiecki Żleb - Grześ - Rakoń - Wołowiec</t>
-  </si>
-  <si>
     <t>Kozi Wierch</t>
   </si>
   <si>
-    <t>Palenica Białczańska – Wodogrzmoty Mickiewicza – Dolina Roztoki – Schronisko PTTK w Dolinie Pięciu Stawów Polskich – Kozi Wierch</t>
-  </si>
-  <si>
     <t>Sławkowski Szczyt</t>
   </si>
   <si>
-    <t>Stary Smokovec – Maksymilianka – Królewski Nos – Sławkowski Szczyt</t>
-  </si>
-  <si>
     <t>Wołoszyn</t>
   </si>
   <si>
-    <t>Dolina Filipka - Rusinowa Polana - Czerwone Brzeżki - Wołoszyn</t>
-  </si>
-  <si>
     <t>Bystra</t>
   </si>
   <si>
-    <t>Siwa Polana - Starorobociańska Dolina - Siwy Zwornik - Bystra</t>
-  </si>
-  <si>
     <t>Banówka</t>
   </si>
   <si>
-    <t>Schronisko Żarskie - Adamcula - Pod Hrubou kopou - Banówka</t>
-  </si>
-  <si>
     <t>Gęsia Szyja</t>
   </si>
   <si>
-    <t>Dolina Filipka - Rusinowa Polana - Gęsia Szyja</t>
-  </si>
-  <si>
     <t>Niżnie Rysy</t>
   </si>
   <si>
-    <t>Palenica Białczańska - Droga Oswalda Balzera, skrzyżowanie szlaków - Wodogrzmoty Mickiewicza - Wodogrzmoty Mickiewicza, odejście do Roztoki - Odejście na Kępę - Odejście na Szpiglasową Przełęcz -  Schronisko PTTK przy Morskim Oku - Morskie Oko - Morskie Oko, pod Czarnym Stawem - Czarny Staw Pod Rysami - Niższe Rysy</t>
-  </si>
-  <si>
     <t>Jagnięcy Szczyt</t>
   </si>
   <si>
-    <t>Biała Woda - Zimna Studnia - Schronisko nad Zielonym Stawem - Jagnięcy Szczyt</t>
-  </si>
-  <si>
     <t>Wysoka</t>
   </si>
   <si>
@@ -337,7 +290,67 @@
     <t>Babia góra Nowa</t>
   </si>
   <si>
-    <t>Zawoja - Babia Góra Nowa - Zawoja</t>
+    <t>Kuźnice-leśniczówka, Myślenickie Turnie-Kasprowy Wierch</t>
+  </si>
+  <si>
+    <t>Tatrzańska Łomnica-Łomnicka Przełęcz-Łomnicka Kopa-Łomnica Staw</t>
+  </si>
+  <si>
+    <t>Kuźnice-Potok Bystra-Przełęcz między Kopami (Karczmisko)-Zielony Staw Gąsienicowy-Świnica</t>
+  </si>
+  <si>
+    <t>Stary Smokowiec-Smokowieckie Siodełko-Rainerowa Chata-Schronisko Zamkowskie-Schronisko Tery'ego-Lodowy Szczyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatrzańska Polanka-Śląski Dom-Mały Gerlach </t>
+  </si>
+  <si>
+    <t>Chata Teryego-Mała Durna Przełęcz-Mały Durny Sczyt-Durna Przełęcz-Durny Szczyt</t>
+  </si>
+  <si>
+    <t>Morskie Oko-Mnichowy Potok-Mnich</t>
+  </si>
+  <si>
+    <t>Siwa Polana-Wyżnia Brama Chochołowska-Schronisko na Polanie Chochołowskiej-Bobrowiecki Żleb-Grześ-Rakoń-Wołowiec</t>
+  </si>
+  <si>
+    <t>Dolina Filipka-Rusinowa Polana-Czerwone Brzeżki-Wołoszyn</t>
+  </si>
+  <si>
+    <t>Siwa Polana-Starorobociańska Dolina-Siwy Zwornik-Bystra</t>
+  </si>
+  <si>
+    <t>Schronisko Żarskie-Adamcula-Pod Hrubou kopou-Banówka</t>
+  </si>
+  <si>
+    <t>Dolina Filipka-Rusinowa Polana-Gęsia Szyja</t>
+  </si>
+  <si>
+    <t>Biała Woda-Zimna Studnia-Schronisko nad Zielonym Stawem-Jagnięcy Szczyt</t>
+  </si>
+  <si>
+    <t>Zawoja-Babia Góra Nowa-Zawoja</t>
+  </si>
+  <si>
+    <t>Palenica Białczańska-Morskie Oko-Czarny Staw-Bula pod Rysami-Rysy</t>
+  </si>
+  <si>
+    <t>Kuźnice-Kalatówki-Hala Kondratowa-Kondracka Przełęcz-Wyżnia Kondracka Przełęcz-Giewont</t>
+  </si>
+  <si>
+    <t>Kuźnice-Boczań-Przełęcz między Kopami-Schronisko PTTK Murowaniec-Czarny Staw Gąsienicowy-Karb-Kościelec</t>
+  </si>
+  <si>
+    <t>Byvala Vazecka chata-Tri studnicky-Krivansky zlab-Maly Krywań-Krywań</t>
+  </si>
+  <si>
+    <t>Palenica Białczańska-Wodogrzmoty Mickiewicza-Dolina Roztoki-Schronisko PTTK w Dolinie Pięciu Stawów Polskich-Kozi Wierch</t>
+  </si>
+  <si>
+    <t>Stary Smokovec-Maksymilianka-Królewski Nos-Sławkowski Szczyt</t>
+  </si>
+  <si>
+    <t>Palenica Białczańska-Droga Oswalda Balzera-Wodogrzmoty Mickiewicza-Wodogrzmoty Mickiewicza-Odejście na Kępę-Odejście na Szpiglasową Przełęcz- PTTK Morskie Oko-Morskie Oko-Czarny Staw Pod Rysami-Niższe Rysy</t>
   </si>
 </sst>
 </file>
@@ -636,25 +649,25 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -697,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3">
         <v>2501</v>
@@ -725,15 +738,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3">
         <v>1987</v>
@@ -761,15 +774,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3">
         <v>1895</v>
@@ -797,15 +810,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3">
         <v>2634</v>
@@ -833,15 +846,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3">
         <v>2301</v>
@@ -870,15 +883,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D7" s="3">
         <v>2155</v>
@@ -907,15 +920,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3">
         <v>2627</v>
@@ -944,15 +957,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3">
         <v>2601</v>
@@ -980,15 +993,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3">
         <v>2623</v>
@@ -1016,15 +1029,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3">
         <v>2495</v>
@@ -1052,15 +1065,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3">
         <v>1788</v>
@@ -1090,13 +1103,13 @@
     </row>
     <row r="13" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3">
         <v>2064</v>
@@ -1125,15 +1138,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3">
         <v>2291</v>
@@ -1161,15 +1174,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3">
         <v>2452</v>
@@ -1198,15 +1211,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3">
         <v>2155</v>
@@ -1235,15 +1248,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3">
         <v>2248</v>
@@ -1272,15 +1285,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3">
         <v>2178</v>
@@ -1308,15 +1321,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3">
         <v>1489</v>
@@ -1345,15 +1358,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3">
         <v>2430</v>
@@ -1382,15 +1395,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D21" s="3">
         <v>2230</v>
@@ -1419,15 +1432,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3">
         <v>1345</v>
@@ -1454,15 +1467,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>1725</v>
@@ -1489,15 +1502,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3">
         <v>995</v>
@@ -1524,15 +1537,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3">
         <v>1047</v>
@@ -1559,15 +1572,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>558</v>
@@ -1594,15 +1607,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3">
         <v>934</v>
@@ -1629,15 +1642,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3">
         <v>977</v>
@@ -1664,15 +1677,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3">
         <v>1328</v>
@@ -1699,15 +1712,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3">
         <v>1324</v>
@@ -1734,15 +1747,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3">
         <v>1000</v>
@@ -1769,15 +1782,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3">
         <v>1257</v>
@@ -1804,15 +1817,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D33" s="3">
         <v>1070</v>
@@ -1839,15 +1852,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3">
         <v>1114</v>
@@ -1874,15 +1887,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3">
         <v>1171</v>
@@ -1909,15 +1922,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3">
         <v>1250</v>
@@ -1944,15 +1957,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D37" s="3">
         <v>1029</v>
@@ -1979,15 +1992,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3">
         <v>1050</v>
@@ -2014,15 +2027,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3">
         <v>1050</v>
@@ -2049,15 +2062,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3">
         <v>974</v>
@@ -2084,15 +2097,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D41" s="3">
         <v>1172</v>
@@ -2119,15 +2132,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3">
         <v>833</v>
@@ -2154,15 +2167,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3">
         <v>1016</v>
@@ -2189,15 +2202,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D44" s="3">
         <v>997</v>
@@ -2224,15 +2237,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D45" s="3">
         <v>1688</v>

--- a/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
+++ b/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\STUDIA\Systemy wspomagania decyzji\Projekt\SWD\Projekt_zaliczeniowy\dataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studia\AiR-5 semestr\SWD\Szczyty\SWD\Projekt_zaliczeniowy\dataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B19E798-9B3D-43EC-8478-D3621F92076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4DD917-D7D9-416E-8148-1DB4745AFF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1590" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -649,25 +649,25 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,19 +681,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -716,20 +716,20 @@
         <v>2501</v>
       </c>
       <c r="E2" s="3">
+        <v>1409</v>
+      </c>
+      <c r="F2" s="3">
         <v>25.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <f>11*60 + 42</f>
         <v>702</v>
       </c>
-      <c r="G2" s="3">
-        <v>1409</v>
-      </c>
       <c r="H2" s="3">
+        <v>-17</v>
+      </c>
+      <c r="I2" s="3">
         <v>11</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-17</v>
       </c>
       <c r="J2" s="3">
         <v>4.8</v>
@@ -738,7 +738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -752,20 +752,20 @@
         <v>1987</v>
       </c>
       <c r="E3" s="3">
+        <v>950</v>
+      </c>
+      <c r="F3" s="3">
         <v>6.4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <f>3*60 + 13</f>
         <v>193</v>
       </c>
-      <c r="G3" s="3">
-        <v>950</v>
-      </c>
       <c r="H3" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I3" s="3">
         <v>20</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-10</v>
       </c>
       <c r="J3" s="3">
         <v>4.9000000000000004</v>
@@ -774,7 +774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -788,20 +788,20 @@
         <v>1895</v>
       </c>
       <c r="E4" s="3">
+        <v>909</v>
+      </c>
+      <c r="F4" s="3">
         <v>5.9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <f>3*60+21</f>
         <v>201</v>
       </c>
-      <c r="G4" s="3">
-        <v>909</v>
-      </c>
       <c r="H4" s="3">
+        <v>-12</v>
+      </c>
+      <c r="I4" s="3">
         <v>18</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-12</v>
       </c>
       <c r="J4" s="3">
         <v>4.8</v>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -824,20 +824,20 @@
         <v>2634</v>
       </c>
       <c r="E5" s="3">
+        <v>900</v>
+      </c>
+      <c r="F5" s="3">
         <v>3.7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <f>2*60+45</f>
         <v>165</v>
       </c>
-      <c r="G5" s="3">
-        <v>900</v>
-      </c>
       <c r="H5" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I5" s="3">
         <v>5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-10</v>
       </c>
       <c r="J5" s="3">
         <v>4.8</v>
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -860,21 +860,21 @@
         <v>2301</v>
       </c>
       <c r="E6" s="3">
+        <f>2302 - 1206</f>
+        <v>1096</v>
+      </c>
+      <c r="F6" s="3">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <f>5*60 + 16</f>
         <v>316</v>
       </c>
-      <c r="G6" s="3">
-        <f>2302 - 1206</f>
-        <v>1096</v>
-      </c>
       <c r="H6" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I6" s="3">
         <v>14</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-16</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
@@ -883,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -897,21 +897,21 @@
         <v>2155</v>
       </c>
       <c r="E7" s="3">
+        <f>2155 - 1017</f>
+        <v>1138</v>
+      </c>
+      <c r="F7" s="3">
         <v>7.9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <f>4*60 + 3</f>
         <v>243</v>
       </c>
-      <c r="G7" s="3">
-        <f>2155 - 1017</f>
-        <v>1138</v>
-      </c>
       <c r="H7" s="3">
+        <v>-12</v>
+      </c>
+      <c r="I7" s="3">
         <v>9</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-12</v>
       </c>
       <c r="J7" s="3">
         <v>4.9000000000000004</v>
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -934,21 +934,21 @@
         <v>2627</v>
       </c>
       <c r="E8" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ref="F8:F9" si="0">5*60</f>
-        <v>300</v>
-      </c>
-      <c r="G8" s="3">
         <f>2627 - 1010</f>
         <v>1617</v>
       </c>
+      <c r="F8" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:G9" si="0">5*60</f>
+        <v>300</v>
+      </c>
       <c r="H8" s="3">
+        <v>-18</v>
+      </c>
+      <c r="I8" s="3">
         <v>5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-18</v>
       </c>
       <c r="J8" s="3">
         <v>4.9000000000000004</v>
@@ -957,7 +957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -971,20 +971,20 @@
         <v>2601</v>
       </c>
       <c r="E9" s="3">
+        <v>650</v>
+      </c>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>650</v>
-      </c>
       <c r="H9" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I9" s="3">
         <v>6</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-16</v>
       </c>
       <c r="J9" s="3">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1007,20 +1007,20 @@
         <v>2623</v>
       </c>
       <c r="E10" s="3">
+        <v>670</v>
+      </c>
+      <c r="F10" s="3">
         <v>1.6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <f>3*60+10</f>
         <v>190</v>
       </c>
-      <c r="G10" s="3">
-        <v>670</v>
-      </c>
       <c r="H10" s="3">
+        <v>-12</v>
+      </c>
+      <c r="I10" s="3">
         <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-12</v>
       </c>
       <c r="J10" s="3">
         <v>5</v>
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1043,20 +1043,20 @@
         <v>2495</v>
       </c>
       <c r="E11" s="3">
+        <v>1420</v>
+      </c>
+      <c r="F11" s="3">
         <v>6.7</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <f>4*60</f>
         <v>240</v>
       </c>
-      <c r="G11" s="3">
-        <v>1420</v>
-      </c>
       <c r="H11" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I11" s="3">
         <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-15</v>
       </c>
       <c r="J11" s="3">
         <v>4.9000000000000004</v>
@@ -1065,7 +1065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1079,20 +1079,20 @@
         <v>1788</v>
       </c>
       <c r="E12" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>64</v>
-      </c>
-      <c r="G12" s="3">
         <f>1788 - 1406</f>
         <v>382</v>
       </c>
+      <c r="F12" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>64</v>
+      </c>
       <c r="H12" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I12" s="3">
         <v>18</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-10</v>
       </c>
       <c r="J12" s="3">
         <v>4.8</v>
@@ -1115,21 +1115,21 @@
         <v>2064</v>
       </c>
       <c r="E13" s="3">
+        <f>2064 - 970</f>
+        <v>1094</v>
+      </c>
+      <c r="F13" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <f>5*60+28</f>
         <v>328</v>
       </c>
-      <c r="G13" s="3">
-        <f>2064 - 970</f>
-        <v>1094</v>
-      </c>
       <c r="H13" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I13" s="3">
         <v>23</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-16</v>
       </c>
       <c r="J13" s="3">
         <v>4.9000000000000004</v>
@@ -1138,7 +1138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1152,20 +1152,20 @@
         <v>2291</v>
       </c>
       <c r="E14" s="3">
+        <v>1528</v>
+      </c>
+      <c r="F14" s="3">
         <v>10.3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <f>5*60+4</f>
         <v>304</v>
       </c>
-      <c r="G14" s="3">
-        <v>1528</v>
-      </c>
       <c r="H14" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I14" s="3">
         <v>16</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-15</v>
       </c>
       <c r="J14" s="3">
         <v>5</v>
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1188,21 +1188,21 @@
         <v>2452</v>
       </c>
       <c r="E15" s="3">
+        <f>2452-995</f>
+        <v>1457</v>
+      </c>
+      <c r="F15" s="3">
         <v>7.5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <f>5*60+22</f>
         <v>322</v>
       </c>
-      <c r="G15" s="3">
-        <f>2452-995</f>
-        <v>1457</v>
-      </c>
       <c r="H15" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I15" s="3">
         <v>20</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-16</v>
       </c>
       <c r="J15" s="3">
         <v>4.9000000000000004</v>
@@ -1211,7 +1211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1225,21 +1225,21 @@
         <v>2155</v>
       </c>
       <c r="E16" s="3">
+        <f>2155-959</f>
+        <v>1196</v>
+      </c>
+      <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <f>2*60</f>
         <v>120</v>
       </c>
-      <c r="G16" s="3">
-        <f>2155-959</f>
-        <v>1196</v>
-      </c>
       <c r="H16" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I16" s="3">
         <v>17</v>
-      </c>
-      <c r="I16" s="3">
-        <v>-10</v>
       </c>
       <c r="J16" s="3">
         <v>4.8</v>
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1262,21 +1262,21 @@
         <v>2248</v>
       </c>
       <c r="E17" s="3">
+        <f>2248 - 943</f>
+        <v>1305</v>
+      </c>
+      <c r="F17" s="3">
         <v>12.1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <f>60*5+24</f>
         <v>324</v>
       </c>
-      <c r="G17" s="3">
-        <f>2248 - 943</f>
-        <v>1305</v>
-      </c>
       <c r="H17" s="3">
+        <v>-19</v>
+      </c>
+      <c r="I17" s="3">
         <v>10</v>
-      </c>
-      <c r="I17" s="3">
-        <v>-19</v>
       </c>
       <c r="J17" s="3">
         <v>4.9000000000000004</v>
@@ -1285,7 +1285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1299,20 +1299,20 @@
         <v>2178</v>
       </c>
       <c r="E18" s="3">
+        <v>900</v>
+      </c>
+      <c r="F18" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <f>4*60+36</f>
         <v>276</v>
       </c>
-      <c r="G18" s="3">
-        <v>900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-17</v>
+      </c>
+      <c r="I18" s="3">
         <v>10</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-17</v>
       </c>
       <c r="J18" s="3">
         <v>4.9000000000000004</v>
@@ -1321,7 +1321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -1335,21 +1335,21 @@
         <v>1489</v>
       </c>
       <c r="E19" s="3">
+        <f>1489-959</f>
+        <v>530</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <f>60*2+5</f>
         <v>125</v>
       </c>
-      <c r="G19" s="3">
-        <f>1489-959</f>
-        <v>530</v>
-      </c>
       <c r="H19" s="3">
+        <v>-12</v>
+      </c>
+      <c r="I19" s="3">
         <v>26</v>
-      </c>
-      <c r="I19" s="3">
-        <v>-12</v>
       </c>
       <c r="J19" s="3">
         <v>4.8</v>
@@ -1358,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1372,21 +1372,21 @@
         <v>2430</v>
       </c>
       <c r="E20" s="3">
+        <f>2430 - 984</f>
+        <v>1446</v>
+      </c>
+      <c r="F20" s="3">
         <v>12.1</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <f>5*60+41</f>
         <v>341</v>
       </c>
-      <c r="G20" s="3">
-        <f>2430 - 984</f>
-        <v>1446</v>
-      </c>
       <c r="H20" s="3">
+        <v>-16</v>
+      </c>
+      <c r="I20" s="3">
         <v>11</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-16</v>
       </c>
       <c r="J20" s="3">
         <v>4.8</v>
@@ -1395,7 +1395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1409,21 +1409,21 @@
         <v>2230</v>
       </c>
       <c r="E21" s="3">
+        <f>2230 - 925</f>
+        <v>1305</v>
+      </c>
+      <c r="F21" s="3">
         <v>10.5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <f>5*60+30</f>
         <v>330</v>
       </c>
-      <c r="G21" s="3">
-        <f>2230 - 925</f>
-        <v>1305</v>
-      </c>
       <c r="H21" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I21" s="3">
         <v>13</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-15</v>
       </c>
       <c r="J21" s="3">
         <v>4.9000000000000004</v>
@@ -1432,7 +1432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1446,19 +1446,19 @@
         <v>1345</v>
       </c>
       <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>18</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>320</v>
       </c>
-      <c r="G22" s="3">
-        <v>1000</v>
-      </c>
       <c r="H22" s="3">
+        <v>-5</v>
+      </c>
+      <c r="I22" s="3">
         <v>25</v>
-      </c>
-      <c r="I22" s="3">
-        <v>-5</v>
       </c>
       <c r="J22" s="3">
         <v>4.5</v>
@@ -1467,7 +1467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -1481,19 +1481,19 @@
         <v>1725</v>
       </c>
       <c r="E23" s="3">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="F23" s="3">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3">
         <v>270</v>
       </c>
-      <c r="G23" s="3">
-        <v>900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I23" s="3">
         <v>20</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-10</v>
       </c>
       <c r="J23" s="3">
         <v>4.8</v>
@@ -1502,7 +1502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -1516,19 +1516,19 @@
         <v>995</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>12</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>180</v>
       </c>
-      <c r="G24" s="3">
-        <v>400</v>
-      </c>
       <c r="H24" s="3">
+        <v>-8</v>
+      </c>
+      <c r="I24" s="3">
         <v>22</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-8</v>
       </c>
       <c r="J24" s="3">
         <v>4.2</v>
@@ -1537,7 +1537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1551,19 +1551,19 @@
         <v>1047</v>
       </c>
       <c r="E25" s="3">
+        <v>700</v>
+      </c>
+      <c r="F25" s="3">
         <v>14</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>240</v>
       </c>
-      <c r="G25" s="3">
-        <v>700</v>
-      </c>
       <c r="H25" s="3">
+        <v>-6</v>
+      </c>
+      <c r="I25" s="3">
         <v>24</v>
-      </c>
-      <c r="I25" s="3">
-        <v>-6</v>
       </c>
       <c r="J25" s="3">
         <v>4.5999999999999996</v>
@@ -1572,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1586,19 +1586,19 @@
         <v>558</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>120</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-12</v>
+      </c>
+      <c r="I26" s="3">
         <v>28</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-12</v>
       </c>
       <c r="J26" s="3">
         <v>3.9</v>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1621,19 +1621,19 @@
         <v>934</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>10</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>150</v>
       </c>
-      <c r="G27" s="3">
-        <v>500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I27" s="3">
         <v>18</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-15</v>
       </c>
       <c r="J27" s="3">
         <v>4.0999999999999996</v>
@@ -1642,7 +1642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -1656,19 +1656,19 @@
         <v>977</v>
       </c>
       <c r="E28" s="3">
+        <v>400</v>
+      </c>
+      <c r="F28" s="3">
         <v>12</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>180</v>
       </c>
-      <c r="G28" s="3">
-        <v>400</v>
-      </c>
       <c r="H28" s="3">
+        <v>-7</v>
+      </c>
+      <c r="I28" s="3">
         <v>26</v>
-      </c>
-      <c r="I28" s="3">
-        <v>-7</v>
       </c>
       <c r="J28" s="3">
         <v>4</v>
@@ -1677,7 +1677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -1691,19 +1691,19 @@
         <v>1328</v>
       </c>
       <c r="E29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F29" s="3">
         <v>20</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>360</v>
       </c>
-      <c r="G29" s="3">
-        <v>1100</v>
-      </c>
       <c r="H29" s="3">
+        <v>-9</v>
+      </c>
+      <c r="I29" s="3">
         <v>21</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-9</v>
       </c>
       <c r="J29" s="3">
         <v>4.7</v>
@@ -1712,7 +1712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
@@ -1726,19 +1726,19 @@
         <v>1324</v>
       </c>
       <c r="E30" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F30" s="3">
         <v>22</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>420</v>
       </c>
-      <c r="G30" s="3">
-        <v>1200</v>
-      </c>
       <c r="H30" s="3">
+        <v>-8</v>
+      </c>
+      <c r="I30" s="3">
         <v>23</v>
-      </c>
-      <c r="I30" s="3">
-        <v>-8</v>
       </c>
       <c r="J30" s="3">
         <v>4.9000000000000004</v>
@@ -1747,7 +1747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1761,19 +1761,19 @@
         <v>1000</v>
       </c>
       <c r="E31" s="3">
+        <v>800</v>
+      </c>
+      <c r="F31" s="3">
         <v>16</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>300</v>
       </c>
-      <c r="G31" s="3">
-        <v>800</v>
-      </c>
       <c r="H31" s="3">
+        <v>-14</v>
+      </c>
+      <c r="I31" s="3">
         <v>19</v>
-      </c>
-      <c r="I31" s="3">
-        <v>-14</v>
       </c>
       <c r="J31" s="3">
         <v>4.3</v>
@@ -1782,7 +1782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1796,19 +1796,19 @@
         <v>1257</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>14</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>240</v>
       </c>
-      <c r="G32" s="3">
-        <v>700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-12</v>
+      </c>
+      <c r="I32" s="3">
         <v>20</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-12</v>
       </c>
       <c r="J32" s="3">
         <v>4.5999999999999996</v>
@@ -1817,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>65</v>
       </c>
@@ -1831,19 +1831,19 @@
         <v>1070</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>10</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>180</v>
       </c>
-      <c r="G33" s="3">
-        <v>500</v>
-      </c>
       <c r="H33" s="3">
+        <v>-9</v>
+      </c>
+      <c r="I33" s="3">
         <v>25</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-9</v>
       </c>
       <c r="J33" s="3">
         <v>4.2</v>
@@ -1852,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
@@ -1866,19 +1866,19 @@
         <v>1114</v>
       </c>
       <c r="E34" s="3">
+        <v>600</v>
+      </c>
+      <c r="F34" s="3">
         <v>8</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>120</v>
       </c>
-      <c r="G34" s="3">
-        <v>600</v>
-      </c>
       <c r="H34" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I34" s="3">
         <v>22</v>
-      </c>
-      <c r="I34" s="3">
-        <v>-11</v>
       </c>
       <c r="J34" s="3">
         <v>4.4000000000000004</v>
@@ -1887,7 +1887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -1901,19 +1901,19 @@
         <v>1171</v>
       </c>
       <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>18</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>320</v>
       </c>
-      <c r="G35" s="3">
-        <v>900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I35" s="3">
         <v>23</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-10</v>
       </c>
       <c r="J35" s="3">
         <v>4.7</v>
@@ -1922,7 +1922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -1936,19 +1936,19 @@
         <v>1250</v>
       </c>
       <c r="E36" s="3">
+        <v>500</v>
+      </c>
+      <c r="F36" s="3">
         <v>12</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>180</v>
       </c>
-      <c r="G36" s="3">
-        <v>500</v>
-      </c>
       <c r="H36" s="3">
+        <v>-8</v>
+      </c>
+      <c r="I36" s="3">
         <v>24</v>
-      </c>
-      <c r="I36" s="3">
-        <v>-8</v>
       </c>
       <c r="J36" s="3">
         <v>4.2</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -1971,19 +1971,19 @@
         <v>1029</v>
       </c>
       <c r="E37" s="3">
+        <v>700</v>
+      </c>
+      <c r="F37" s="3">
         <v>16</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>300</v>
       </c>
-      <c r="G37" s="3">
-        <v>700</v>
-      </c>
       <c r="H37" s="3">
+        <v>-13</v>
+      </c>
+      <c r="I37" s="3">
         <v>20</v>
-      </c>
-      <c r="I37" s="3">
-        <v>-13</v>
       </c>
       <c r="J37" s="3">
         <v>4.5</v>
@@ -1992,7 +1992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2006,19 +2006,19 @@
         <v>1050</v>
       </c>
       <c r="E38" s="3">
+        <v>400</v>
+      </c>
+      <c r="F38" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>150</v>
       </c>
-      <c r="G38" s="3">
-        <v>400</v>
-      </c>
       <c r="H38" s="3">
+        <v>-7</v>
+      </c>
+      <c r="I38" s="3">
         <v>25</v>
-      </c>
-      <c r="I38" s="3">
-        <v>-7</v>
       </c>
       <c r="J38" s="3">
         <v>4.3</v>
@@ -2027,7 +2027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -2041,19 +2041,19 @@
         <v>1050</v>
       </c>
       <c r="E39" s="3">
+        <v>500</v>
+      </c>
+      <c r="F39" s="3">
         <v>12</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>180</v>
       </c>
-      <c r="G39" s="3">
-        <v>500</v>
-      </c>
       <c r="H39" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I39" s="3">
         <v>22</v>
-      </c>
-      <c r="I39" s="3">
-        <v>-11</v>
       </c>
       <c r="J39" s="3">
         <v>4.4000000000000004</v>
@@ -2062,7 +2062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -2076,19 +2076,19 @@
         <v>974</v>
       </c>
       <c r="E40" s="3">
+        <v>300</v>
+      </c>
+      <c r="F40" s="3">
         <v>8</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>120</v>
       </c>
-      <c r="G40" s="3">
-        <v>300</v>
-      </c>
       <c r="H40" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I40" s="3">
         <v>28</v>
-      </c>
-      <c r="I40" s="3">
-        <v>-15</v>
       </c>
       <c r="J40" s="3">
         <v>3.8</v>
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -2111,19 +2111,19 @@
         <v>1172</v>
       </c>
       <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>14</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>240</v>
       </c>
-      <c r="G41" s="3">
-        <v>800</v>
-      </c>
       <c r="H41" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I41" s="3">
         <v>20</v>
-      </c>
-      <c r="I41" s="3">
-        <v>-10</v>
       </c>
       <c r="J41" s="3">
         <v>4.5999999999999996</v>
@@ -2132,7 +2132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
@@ -2146,19 +2146,19 @@
         <v>833</v>
       </c>
       <c r="E42" s="3">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="F42" s="3">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3">
         <v>270</v>
       </c>
-      <c r="G42" s="3">
-        <v>600</v>
-      </c>
       <c r="H42" s="3">
+        <v>-8</v>
+      </c>
+      <c r="I42" s="3">
         <v>26</v>
-      </c>
-      <c r="I42" s="3">
-        <v>-8</v>
       </c>
       <c r="J42" s="3">
         <v>4</v>
@@ -2167,7 +2167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -2181,19 +2181,19 @@
         <v>1016</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>12</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>180</v>
       </c>
-      <c r="G43" s="3">
-        <v>400</v>
-      </c>
       <c r="H43" s="3">
+        <v>-9</v>
+      </c>
+      <c r="I43" s="3">
         <v>23</v>
-      </c>
-      <c r="I43" s="3">
-        <v>-9</v>
       </c>
       <c r="J43" s="3">
         <v>4.0999999999999996</v>
@@ -2202,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
@@ -2216,19 +2216,19 @@
         <v>997</v>
       </c>
       <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>18</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>320</v>
       </c>
-      <c r="G44" s="3">
-        <v>800</v>
-      </c>
       <c r="H44" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I44" s="3">
         <v>24</v>
-      </c>
-      <c r="I44" s="3">
-        <v>-10</v>
       </c>
       <c r="J44" s="3">
         <v>4.3</v>
@@ -2237,7 +2237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>84</v>
       </c>
@@ -2251,19 +2251,19 @@
         <v>1688</v>
       </c>
       <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>16</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>900</v>
-      </c>
       <c r="H45" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I45" s="3">
         <v>21</v>
-      </c>
-      <c r="I45" s="3">
-        <v>-11</v>
       </c>
       <c r="J45" s="3">
         <v>4.5999999999999996</v>

--- a/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
+++ b/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\Desktop\studia\3. rok\Systemy wspomagania decyzji\ZADANIEE ZALICZENIOWE\SWD\Projekt_zaliczeniowy\dataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\STUDIA\Systemy wspomagania decyzji\ostatyeczny\SWD\Projekt_zaliczeniowy\dataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246CE2E-E2C0-4530-9D52-231CA949B5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110D424C-13C2-4D43-8693-6C6D5978269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -386,82 +386,33 @@
     <t>Góry Sowie</t>
   </si>
   <si>
-    <t>Rydza Śmigłego – Wyśnikówka – Mogielica – Polana Stumorgowa – Mogielica – Polana u Błazka – Słopnice Królewskie – Rydza Śmigłego</t>
-  </si>
-  <si>
-    <t>Szczyrk – Skrzyczne – Malinowska Skała – Szczyrk Solisko</t>
-  </si>
-  <si>
     <t>Przełęcz Gromadzka - Obidza - Wielki Rogacz</t>
   </si>
   <si>
-    <t>Schronisko PTTK na Kudłaczach Łysina - Trzy Kopce -Lubomir – Schronisko PTTK na Kudłaczach</t>
-  </si>
-  <si>
-    <t>Nowy Targ Kowaniec – Polana Brożek – Polana Sralówki – Hala Bukowina Waksmundzka – Wisielakówka – Schronisko pod Turbaczem – Turbacz</t>
-  </si>
-  <si>
-    <t>Rzyki, Mydlarze – Skrzyżowanie przy Szlaku Białych Serc - Przełęcz Midowicza - Schronisko PTTK Leskowiec -Rzyki, Mydlarze</t>
-  </si>
-  <si>
-    <t>Szczawnica – Palenica, Szafranówka, Szczawnica Niżna - Szczawnica</t>
-  </si>
-  <si>
-    <t>Wisła- Schronisko PTTK Przysłop pod Baranią Górą - Barania Góra - Wisła Czarne Parking – Czarna Wisełka – Schronisko pod Baranią Górą – Wierch Wisełka – Barania Góra – Dolina Białej Wisełki – Kaskady Rodła – Wisła Czarne FojtulaWisła, Czarne – Wisła</t>
-  </si>
-  <si>
-    <t>Trusiówka – Gorc Troszacki - Kudłoń - rozejście szlaków - Skrzyżowanie pod Stawieńcem - Trusiówka</t>
-  </si>
-  <si>
     <t>Szczyrk - Siodło pod Klimczokiem - Klimczok - Schronisko PTTK Klimczok - Szczyrk</t>
   </si>
   <si>
-    <t>Rabka Zdrój(szlak żółty) - Skrzyżowanie na Luboniu - Schronisko PTTK na Luboniu Wielkim - Pod Luboniem – Rabka Zdrój</t>
-  </si>
-  <si>
     <t>Schronisko PTTK Na Hali Miziowej - Las Suchowarski - Góra Pięciu Kopców - Schronisko PTTK Na Hali Miziowej</t>
   </si>
   <si>
     <t>Schronisko PTTK na Wielkiej Raczy</t>
   </si>
   <si>
-    <t>Przełęcz Salmopolska – Malinów – Jaskinia Malinowska – Przełęcz pod Malinowem – Nad Przełęczą Malinowską – Malinowska Skała – Wychodnia Skalna na Malinowskiej Skale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szczawnica - Bacówka PTTK Pod Bereśnikiem - Pod Dzwonkówką– Dzwonkówka
-</t>
-  </si>
-  <si>
     <t>Międzybrodzie Żywieckie - Żar (szlak czarny)</t>
   </si>
   <si>
     <t>Jaworki - Biała Woda - Obidza - Przełęcz Gromadzka</t>
   </si>
   <si>
-    <t>Żegiestów – Bacówka PTTK Nad Wierchomlą - Runek - Schronisko PTTK Hala Łabowska - Piwniczna Zdrój</t>
-  </si>
-  <si>
-    <t>Przełęcz Przegibek w Beskidzie Małym - Schronisko PTTK Na Magurce - Smocza Jama - odejście szlaku - Czupel</t>
-  </si>
-  <si>
-    <t>Palenica Białczańska – Morskie Oko – Czarny Staw – Bula pod Rysami – Rysy</t>
-  </si>
-  <si>
     <t>Kuźnice - leśniczówka, Myślenickie Turnie - Kasprowy Wierch</t>
   </si>
   <si>
-    <t>Kuźnice – Kalatówki – Hala Kondratowa – Kondracka Przełęcz – Wyżnia Kondracka Przełęcz – Giewont</t>
-  </si>
-  <si>
     <t>Tatrzańska Łomnica - Łomnicka Przełęcz - Łomnicka Kopa - Łomnica Staw</t>
   </si>
   <si>
     <t>Kuźnice - Potok Bystra - Przełęcz między Kopami (Karczmisko) - Zielony Staw Gąsienicowy - Świnica</t>
   </si>
   <si>
-    <t>Kuźnice – Boczań – Przełęcz między Kopami – Schronisko PTTK Murowaniec – Czarny Staw Gąsienicowy – Karb – Kościelec</t>
-  </si>
-  <si>
     <t>Stary Smokowiec - Smokowieckie Siodełko - Rainerowa Chata - Schronisko Zamkowskie - Schronisko Tery'ego - Lodowy Szczyt</t>
   </si>
   <si>
@@ -471,21 +422,12 @@
     <t>Chata Teryego - Mała Durna Przełęcz - Mały Durny Sczyt - Durna Przełęcz - Durny Szczyt</t>
   </si>
   <si>
-    <t>Byvala Vazecka chata – Tri studnicky – Krivansky zlab – Maly Krywań – Krywań</t>
-  </si>
-  <si>
     <t>Morskie Oko - Mnichowy Potok - Mnich</t>
   </si>
   <si>
     <t>Siwa Polana - Wyżnia Brama Chochołowska - Schronisko na Polanie Chochołowskiej - Bobrowiecki Żleb - Grześ - Rakoń - Wołowiec</t>
   </si>
   <si>
-    <t>Palenica Białczańska – Wodogrzmoty Mickiewicza – Dolina Roztoki – Schronisko PTTK w Dolinie Pięciu Stawów Polskich – Kozi Wierch</t>
-  </si>
-  <si>
-    <t>Stary Smokovec – Maksymilianka – Królewski Nos – Sławkowski Szczyt</t>
-  </si>
-  <si>
     <t>Dolina Filipka - Rusinowa Polana - Czerwone Brzeżki - Wołoszyn</t>
   </si>
   <si>
@@ -498,17 +440,7 @@
     <t>Dolina Filipka - Rusinowa Polana - Gęsia Szyja</t>
   </si>
   <si>
-    <t>Palenica Białczańska - Droga Oswalda Balzera, skrzyżowanie szlaków - Wodogrzmoty Mickiewicza - Wodogrzmoty Mickiewicza, odejście do Roztoki - Odejście na Kępę - Odejście na Szpiglasową Przełęcz - Schronisko PTTK przy Morskim Oku - Morskie Oko - Morskie Oko, pod Czarnym Stawem - Czarny Staw Pod Rysami - Niższe Rysy</t>
-  </si>
-  <si>
     <t>Biała Woda - Zimna Studnia - Schronisko nad Zielonym Stawem - Jagnięcy Szczyt</t>
-  </si>
-  <si>
-    <t>Jaworki – Wąwóz Homole – Polana pod Wysoką – Wysoka</t>
-  </si>
-  <si>
-    <t>Sromowce Niżne - Przęłęcz Szopka - Trzy Korony -
-Zamek Pieniński - Sromowce Niżne</t>
   </si>
   <si>
     <t>Jaworki - Wąwóz Homole - Polana Pod Wysoką - Uroczysko
@@ -542,146 +474,214 @@
 zielony - Polana Wapienne - Żar(Branisko)</t>
   </si>
   <si>
+    <t>Szczawnica - Palenica</t>
+  </si>
+  <si>
+    <t>Szlachtowa - Pod Huściawą - Huściawa</t>
+  </si>
+  <si>
+    <t>Szlachtowa - Pod Huściawą - Jarmuta</t>
+  </si>
+  <si>
+    <t>Niedzica Zamek - Bartuśka - Cisówka</t>
+  </si>
+  <si>
+    <t>Krościenko nad Dunajcem - Toporzysko - Burzana - Czerteż</t>
+  </si>
+  <si>
+    <t>Krościenko nad Dunajcem - Toporzysko - Burzana - Czertezik</t>
+  </si>
+  <si>
+    <t>Krościenko - Przełęcz Sosnów - Pod Sokolicą - Sokolica</t>
+  </si>
+  <si>
+    <t>Szczawnica - Palenica - Szafranówka</t>
+  </si>
+  <si>
+    <t>Rozdroże Izerskie - Szklarska Droga - Kopalnia "Stanisław" - Rozdroże pod Kopą - Rozdroże Izerskie</t>
+  </si>
+  <si>
+    <t>Szklarska Poręba - Szrenica - Szklarska Poręba</t>
+  </si>
+  <si>
+    <t>Szklarska Poręba(parking Szklarka) - Schronisko pod Łabskim szczytem - Łabski Szczyt - Trzy Jawory - Szklarska Poręba(parking Szklarka)</t>
+  </si>
+  <si>
+    <t>Jagniątków - Rozdroże pod Jaworem - Koralowa Góra - Jagniątków</t>
+  </si>
+  <si>
+    <t>Borowice - Polana w Karkonoszach - Słonecznik - Borowice</t>
+  </si>
+  <si>
+    <t>Karpacz Biały Jar - Kocioł Białego Jaru - Śnieżka - Schronisko nad Łomniczką - Karpacz Biały Jar</t>
+  </si>
+  <si>
+    <t>Karpacz, Myśliwska - Złote Karpatki - Zapora na Łomnicy - Karpatka - Karpacz, Myśliwska</t>
+  </si>
+  <si>
+    <t>Wilcza Poręba - Schronisko Dom Śląski - Sowia Przełęcz - Wilcza Poręba</t>
+  </si>
+  <si>
+    <t>Schronisko na Przełęczy Okraj - Sklany Stół - Sowia Przełęcz - Schronisko na Przełęczy Okraj</t>
+  </si>
+  <si>
+    <t>Schronisko Srebrny Potok - Pod Albeřickým vrchem - Łysocina - Bielec - Schronisko Srebrny Potok</t>
+  </si>
+  <si>
+    <t>Kudowa Zdrój - Rozdroże pod Pstrążnicą - Błędne skały - Rozdroże pod Lelkową - Kudowa Zdrój</t>
+  </si>
+  <si>
+    <t>Karłów - Strzeliniec Wielki - Karłów</t>
+  </si>
+  <si>
+    <t>Batorów - Pod Zbóje - Skalne grzyby</t>
+  </si>
+  <si>
+    <t>Kamieńsk - Przełęcz Sypka - Wołowiec - Przełęcz Kozia - Kamieńsk</t>
+  </si>
+  <si>
+    <t>Wałbrzych - Przełęcz Kozia - Jedlina Zdrój - Rozdroże Leśne Berno - Wałbrzych</t>
+  </si>
+  <si>
+    <t>Przełęcz Sokola - Wielka Sowa - Rozdroże pod Kozią Równią - Lisie Skały - Przełęcz Sokola</t>
+  </si>
+  <si>
+    <t>Nowa Bielawa - Schronisko Zygmuntówka - Przełęcz Woliborska - Nowa Bielawa</t>
+  </si>
+  <si>
+    <t>Głuszyca - Rozdroże pod Moszną - Włodarz - Przełęcz Marcowa - Głuszyca</t>
+  </si>
+  <si>
+    <t>Wołosate - Przełęcz Bukowska - Tarnica - Wołosate</t>
+  </si>
+  <si>
+    <t>Smerek - Wetlina - Smerek(szczyt) - Kalnica - Smerek</t>
+  </si>
+  <si>
+    <t>Przełęcz Wyżniańska - Połonina Caryńska - Przełęcz Wyżniańska</t>
+  </si>
+  <si>
+    <t>Przełęcz wyżna - Połonina Wetlińska - Schron Chatka Puchatka - Przełęcz Wyżna</t>
+  </si>
+  <si>
+    <t>Muczne - Halicz - Muczne</t>
+  </si>
+  <si>
+    <t>Ustrzyki Górne - Przełęcz pod Tarnicą - Rozsypaniec - Przełęcz pod Tarnicą - Ustrzyki Górne</t>
+  </si>
+  <si>
+    <t>Pszczeliny - Krzemień - Pszczeliny</t>
+  </si>
+  <si>
+    <t>Przełęcz Wyżna - Dział - Przełęcz Wyżna</t>
+  </si>
+  <si>
+    <t>Wiata Wędrowca - Otryt - Wiata Wędrowca</t>
+  </si>
+  <si>
+    <t>Przełęcz Wyżniańska - Wielka Rawka - Przełęcz Wyżniańska</t>
+  </si>
+  <si>
+    <t>Muczne - Bukowe Berdo - Muczne</t>
+  </si>
+  <si>
+    <t>Ustrzyki Górne - Jawornik - Ustrzyki Górne</t>
+  </si>
+  <si>
+    <t>ocena widoków [ilosc gwiazdek]</t>
+  </si>
+  <si>
+    <t>Przełęcz Krowiarki - Babia Góra - Przełęcz Krowiarki</t>
+  </si>
+  <si>
+    <t>Rydza Śmigłego - Wyśnikówka - Mogielica - Polana Stumorgowa - Mogielica - Polana u Błazka - Słopnice Królewskie - Rydza Śmigłego</t>
+  </si>
+  <si>
+    <t>Szczyrk - Skrzyczne - Malinowska Skała - Szczyrk Solisko</t>
+  </si>
+  <si>
+    <t>Nowy Targ Kowaniec - Polana Brożek - Polana Sralówki - Hala Bukowina Waksmundzka - Wisielakówka - Schronisko pod Turbaczem - Turbacz</t>
+  </si>
+  <si>
+    <t>Szczawnica - Palenica, Szafranówka, Szczawnica Niżna - Szczawnica</t>
+  </si>
+  <si>
+    <t>Trusiówka - Gorc Troszacki - Kudłoń - rozejście szlaków - Skrzyżowanie pod Stawieńcem - Trusiówka</t>
+  </si>
+  <si>
+    <t>Rabka Zdrój(szlak żółty) - Skrzyżowanie na Luboniu - Schronisko PTTK na Luboniu Wielkim - Pod Luboniem - Rabka Zdrój</t>
+  </si>
+  <si>
+    <t>Przełęcz Salmopolska - Malinów - Jaskinia Malinowska - Przełęcz pod Malinowem - Nad Przełęczą Malinowską - Malinowska Skała - Wychodnia Skalna na Malinowskiej Skale.</t>
+  </si>
+  <si>
+    <t>Palenica Białczańska - Morskie Oko - Czarny Staw - Bula pod Rysami - Rysy</t>
+  </si>
+  <si>
+    <t>Kuźnice - Kalatówki - Hala Kondratowa - Kondracka Przełęcz - Wyżnia Kondracka Przełęcz - Giewont</t>
+  </si>
+  <si>
+    <t>Kuźnice - Boczań - Przełęcz między Kopami - Schronisko PTTK Murowaniec - Czarny Staw Gąsienicowy - Karb - Kościelec</t>
+  </si>
+  <si>
+    <t>Byvala Vazecka chata - Tri studnicky - Krivansky zlab - Maly Krywań - Krywań</t>
+  </si>
+  <si>
+    <t>Palenica Białczańska - Wodogrzmoty Mickiewicza - Dolina Roztoki - Schronisko PTTK w Dolinie Pięciu Stawów Polskich - Kozi Wierch</t>
+  </si>
+  <si>
+    <t>Stary Smokovec - Maksymilianka - Królewski Nos - Sławkowski Szczyt</t>
+  </si>
+  <si>
+    <t>Jaworki - Wąwóz Homole - Polana pod Wysoką - Wysoka</t>
+  </si>
+  <si>
+    <t>Schronisko PTTK na Kudłaczach Łysina - Trzy Kopce  - Lubomir - Schronisko PTTK na Kudłaczach</t>
+  </si>
+  <si>
+    <t>Rzyki, Mydlarze - Skrzyżowanie przy Szlaku Białych Serc - Przełęcz Midowicza - Schronisko PTTK Leskowiec  - Rzyki, Mydlarze</t>
+  </si>
+  <si>
+    <t>Wisła -   PTTK Przysłop pod Baranią Górą - Barania Góra - Wisła Czarne Parking - Czarna Wisełka - Schronisko pod Baranią Górą - Wierch Wisełka - Barania Góra - Dolina Białej Wisełki - Kaskady Rodła - Wisła Czarne FojtulaWisła, Czarne - Wisła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczawnica - Bacówka PTTK Pod Bereśnikiem - Pod Dzwonkówką -  Dzwonkówka
+</t>
+  </si>
+  <si>
+    <t>Żegiestów -  PTTK Nad Wierchomlą - Runek - Schronisko PTTK Hala Łabowska - Piwniczna Zdrój</t>
+  </si>
+  <si>
+    <t>Przełęcz Przegibek w Beskidzie Małym - PTTK Na Magurce - Smocza Jama - odejście szlaku - Czupel</t>
+  </si>
+  <si>
+    <t>Palenica Białczańska - Droga Oswalda Balzera, skrzyżowanie szlaków - Wodogrzmoty Mickiewicza - Odejście na Kępę - Odejście na Szpiglasową Przełęcz - PTTK przy Morskim Oku - Morskie Oko - Czarny Staw Pod Rysami - Niższe Rysy</t>
+  </si>
+  <si>
+    <t>Sromowce Niżne - Przęłęcz Szopka - Trzy Korony  - 
+Zamek Pieniński - Sromowce Niżne</t>
+  </si>
+  <si>
     <t>Sromowce Niżne - Czerwony Klasztor - Przełęcz pod 
 Klasztorną Górą - Pod Płaśnią - Rozejście szlaków(szlak czerw.)
-- Aksamitka</t>
-  </si>
-  <si>
-    <t>Szczawnica - Palenica</t>
-  </si>
-  <si>
-    <t>Szlachtowa - Pod Huściawą - Huściawa</t>
-  </si>
-  <si>
-    <t>Krościenko nad Dunajcem - Toporzysko - Bańków Gronik -
+ -  Aksamitka</t>
+  </si>
+  <si>
+    <t>Krościenko nad Dunajcem - Toporzysko - Bańków Gronik  - 
 Polana Wyrobek - Zamek Pieniny - Zamkowa Góra</t>
   </si>
   <si>
-    <t>Szlachtowa - Pod Huściawą - Jarmuta</t>
-  </si>
-  <si>
-    <t>Niedzica Zamek - Bartuśka - Cisówka</t>
-  </si>
-  <si>
-    <t>Krościenko nad Dunajcem - Toporzysko - Burzana - Czerteż</t>
-  </si>
-  <si>
-    <t>Krościenko nad Dunajcem - Toporzysko - Burzana - Czertezik</t>
-  </si>
-  <si>
-    <t>Krościenko - Przełęcz Sosnów - Pod Sokolicą - Sokolica</t>
-  </si>
-  <si>
-    <t>Szczawnica - Palenica - Szafranówka</t>
-  </si>
-  <si>
-    <t>Rozdroże Izerskie - Szklarska Droga - Kopalnia "Stanisław" - Rozdroże pod Kopą - Rozdroże Izerskie</t>
-  </si>
-  <si>
-    <t>Świeradów-Zdrój - Łącznik - Borowina - Chatka Górzystów - Świeradowiec - Świeradów Zdrój</t>
-  </si>
-  <si>
-    <t>Szklarska Poręba - Szrenica - Szklarska Poręba</t>
-  </si>
-  <si>
-    <t>Szklarska Poręba(parking Szklarka) - Schronisko pod Łabskim szczytem - Łabski Szczyt - Trzy Jawory - Szklarska Poręba(parking Szklarka)</t>
-  </si>
-  <si>
-    <t>Jagniątków - Rozdroże pod Jaworem - Koralowa Góra - Jagniątków</t>
-  </si>
-  <si>
-    <t>Borowice - Polana w Karkonoszach - Słonecznik - Borowice</t>
-  </si>
-  <si>
-    <t>Karpacz Biały Jar - Kocioł Białego Jaru - Śnieżka - Schronisko nad Łomniczką - Karpacz Biały Jar</t>
-  </si>
-  <si>
-    <t>Karpacz, Myśliwska - Złote Karpatki - Zapora na Łomnicy - Karpatka - Karpacz, Myśliwska</t>
-  </si>
-  <si>
-    <t>Wilcza Poręba - Schronisko Dom Śląski - Sowia Przełęcz - Wilcza Poręba</t>
-  </si>
-  <si>
-    <t>Wilcza Poręba -Skalny Stół - Wilcza Poręba</t>
-  </si>
-  <si>
-    <t>Schronisko na Przełęczy Okraj - Sklany Stół - Sowia Przełęcz - Schronisko na Przełęczy Okraj</t>
-  </si>
-  <si>
-    <t>Schronisko Srebrny Potok - Pod Albeřickým vrchem - Łysocina - Bielec - Schronisko Srebrny Potok</t>
-  </si>
-  <si>
-    <t>Kudowa Zdrój - Rozdroże pod Pstrążnicą - Błędne skały - Rozdroże pod Lelkową - Kudowa Zdrój</t>
-  </si>
-  <si>
-    <t>Karłów - Strzeliniec Wielki - Karłów</t>
-  </si>
-  <si>
-    <t>Batorów - Pod Zbóje - Skalne grzyby</t>
-  </si>
-  <si>
-    <t>Kamieńsk - Przełęcz Sypka - Wołowiec - Przełęcz Kozia - Kamieńsk</t>
-  </si>
-  <si>
-    <t>Wałbrzych - Przełęcz Kozia - Jedlina Zdrój - Rozdroże Leśne Berno - Wałbrzych</t>
-  </si>
-  <si>
-    <t>Przełęcz Sokola - Wielka Sowa - Rozdroże pod Kozią Równią - Lisie Skały - Przełęcz Sokola</t>
-  </si>
-  <si>
-    <t>Nowa Bielawa - Schronisko Zygmuntówka - Przełęcz Woliborska - Nowa Bielawa</t>
-  </si>
-  <si>
-    <t>Głuszyca - Rozdroże pod Moszną - Włodarz - Przełęcz Marcowa - Głuszyca</t>
-  </si>
-  <si>
-    <t>Wołosate - Przełęcz Bukowska - Tarnica - Wołosate</t>
-  </si>
-  <si>
-    <t>Smerek - Wetlina - Smerek(szczyt) - Kalnica - Smerek</t>
-  </si>
-  <si>
-    <t>Przełęcz Wyżniańska - Połonina Caryńska - Przełęcz Wyżniańska</t>
-  </si>
-  <si>
-    <t>Przełęcz wyżna - Połonina Wetlińska - Schron Chatka Puchatka - Przełęcz Wyżna</t>
-  </si>
-  <si>
-    <t>Muczne - Halicz - Muczne</t>
-  </si>
-  <si>
-    <t>Ustrzyki Górne - Przełęcz pod Tarnicą - Rozsypaniec - Przełęcz pod Tarnicą - Ustrzyki Górne</t>
-  </si>
-  <si>
-    <t>Pszczeliny - Krzemień - Pszczeliny</t>
-  </si>
-  <si>
-    <t>Przełęcz Wyżna - Dział - Przełęcz Wyżna</t>
-  </si>
-  <si>
-    <t>Wiata Wędrowca - Otryt - Wiata Wędrowca</t>
-  </si>
-  <si>
-    <t>Przełęcz Wyżniańska - Wielka Rawka - Przełęcz Wyżniańska</t>
-  </si>
-  <si>
-    <t>Muczne - Bukowe Berdo - Muczne</t>
-  </si>
-  <si>
-    <t>Ustrzyki Górne - Jawornik - Ustrzyki Górne</t>
-  </si>
-  <si>
-    <t>ocena widoków [ilosc gwiazdek]</t>
-  </si>
-  <si>
-    <t>Przełęcz Krowiarki - Babia Góra - Przełęcz Krowiarki</t>
+    <t>Świeradów - Zdrój - Łącznik - Borowina - Chatka Górzystów - Świeradowiec - Świeradów Zdrój</t>
+  </si>
+  <si>
+    <t>Wilcza Poręba  - Skalny Stół - Wilcza Poręba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1046,27 +1046,27 @@
   </sheetPr>
   <dimension ref="A1:K994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="51" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,13 +1095,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D2" s="7">
         <v>1725</v>
@@ -1136,7 +1136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="38" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7">
         <v>1173</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7">
         <v>1257</v>
@@ -1206,7 +1206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7">
         <v>1262</v>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="25.5" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="D6" s="7">
         <v>904</v>
@@ -1276,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="38" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
         <v>1310</v>
@@ -1311,7 +1311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="38" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="D8" s="7">
         <v>922</v>
@@ -1346,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="25.5" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="D9" s="7">
         <v>950</v>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="50.5" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="D10" s="7">
         <v>1220</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="25.5" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
         <v>1274</v>
@@ -1451,7 +1451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="25.5" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
         <v>1117</v>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="38.5" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7">
         <v>1211</v>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="25.5" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
         <v>1556</v>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D15" s="7">
         <v>1236</v>
@@ -1591,7 +1591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="38" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="D16" s="7">
         <v>1155</v>
@@ -1626,7 +1626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="38" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="D17" s="7">
         <v>983</v>
@@ -1661,7 +1661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D18" s="7">
         <v>761</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7">
         <v>1023</v>
@@ -1731,7 +1731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="25.5" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7">
         <v>1080</v>
@@ -1766,7 +1766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="25.5" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="D21" s="7">
         <v>933</v>
@@ -1801,7 +1801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="25.5" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D22" s="7">
         <v>2501</v>
@@ -1836,7 +1836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D23" s="7">
         <v>1987</v>
@@ -1871,7 +1871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="25.5" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D24" s="7">
         <v>1895</v>
@@ -1906,7 +1906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="25.5" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D25" s="7">
         <v>2634</v>
@@ -1941,7 +1941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="25.5" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D26" s="7">
         <v>2301</v>
@@ -1976,7 +1976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="25.5" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D27" s="7">
         <v>2155</v>
@@ -2011,7 +2011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="25.5" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D28" s="7">
         <v>2627</v>
@@ -2046,7 +2046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D29" s="7">
         <v>2601</v>
@@ -2081,7 +2081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="25.5" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D30" s="7">
         <v>2623</v>
@@ -2116,7 +2116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="25.5" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="D31" s="7">
         <v>2495</v>
@@ -2151,7 +2151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D32" s="7">
         <v>1788</v>
@@ -2186,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="38" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D33" s="7">
         <v>2064</v>
@@ -2221,7 +2221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="38" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="D34" s="7">
         <v>2291</v>
@@ -2256,7 +2256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="25.5" thickBot="1">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="D35" s="7">
         <v>2452</v>
@@ -2291,7 +2291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7">
         <v>2155</v>
@@ -2326,7 +2326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D37" s="7">
         <v>2248</v>
@@ -2361,7 +2361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13" thickBot="1">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D38" s="7">
         <v>2178</v>
@@ -2396,7 +2396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D39" s="7">
         <v>1489</v>
@@ -2431,7 +2431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="50.5" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="D40" s="7">
         <v>2430</v>
@@ -2466,7 +2466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="25.5" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D41" s="7">
         <v>2230</v>
@@ -2501,7 +2501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="13" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D42" s="7">
         <v>1050</v>
@@ -2536,7 +2536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="25.5" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D43" s="7">
         <v>982</v>
@@ -2571,7 +2571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="25.5" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D44" s="7">
         <v>966</v>
@@ -2606,7 +2606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="25.5" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D45" s="7">
         <v>960</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D46" s="7">
         <v>942</v>
@@ -2676,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D47" s="7">
         <v>939</v>
@@ -2711,7 +2711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D48" s="7">
         <v>725</v>
@@ -2746,7 +2746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D49" s="7">
         <v>899</v>
@@ -2781,7 +2781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D50" s="7">
         <v>889</v>
@@ -2816,7 +2816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D51" s="7">
         <v>883</v>
@@ -2851,7 +2851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="D52" s="7">
         <v>840</v>
@@ -2886,7 +2886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D53" s="7">
         <v>722</v>
@@ -2921,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D54" s="7">
         <v>818</v>
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="2" t="s">
         <v>67</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D55" s="7">
         <v>799</v>
@@ -2991,7 +2991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="2" t="s">
         <v>68</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D56" s="7">
         <v>794</v>
@@ -3026,7 +3026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="2" t="s">
         <v>69</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D57" s="7">
         <v>777</v>
@@ -3061,7 +3061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="2" t="s">
         <v>70</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D58" s="7">
         <v>774</v>
@@ -3096,7 +3096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>71</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D59" s="7">
         <v>772</v>
@@ -3131,7 +3131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="2" t="s">
         <v>72</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D60" s="7">
         <v>747</v>
@@ -3166,7 +3166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D61" s="7">
         <v>742</v>
@@ -3201,7 +3201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>74</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D62" s="7">
         <v>1122</v>
@@ -3236,7 +3236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="2" t="s">
         <v>75</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D63" s="7">
         <v>1106</v>
@@ -3271,7 +3271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A64" s="2" t="s">
         <v>76</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D64" s="7">
         <v>1361</v>
@@ -3306,7 +3306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="2" t="s">
         <v>77</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D65" s="7">
         <v>1470</v>
@@ -3341,7 +3341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="2" t="s">
         <v>78</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D66" s="7">
         <v>1039</v>
@@ -3376,7 +3376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="s">
         <v>37</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D67" s="7">
         <v>1421</v>
@@ -3411,7 +3411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>79</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D68" s="7">
         <v>1603</v>
@@ -3446,7 +3446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="2" t="s">
         <v>80</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D69" s="7">
         <v>722</v>
@@ -3481,7 +3481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="2" t="s">
         <v>81</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D70" s="7">
         <v>1517</v>
@@ -3516,7 +3516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="2" t="s">
         <v>82</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D71" s="7">
         <v>1282</v>
@@ -3551,7 +3551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="2" t="s">
         <v>82</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>114</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D72" s="7">
         <v>1282</v>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="2" t="s">
         <v>83</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D73" s="7">
         <v>1189</v>
@@ -3621,7 +3621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D74" s="7">
         <v>843</v>
@@ -3656,7 +3656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="2" t="s">
         <v>85</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>115</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D75" s="7">
         <v>922</v>
@@ -3691,7 +3691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="s">
         <v>86</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D76" s="7">
         <v>751</v>
@@ -3726,7 +3726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>26</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D77" s="7">
         <v>776</v>
@@ -3761,7 +3761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>116</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D78" s="7">
         <v>736</v>
@@ -3796,7 +3796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>117</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D79" s="7">
         <v>1015</v>
@@ -3831,7 +3831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>89</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>117</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D80" s="8">
         <v>964</v>
@@ -3866,7 +3866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="4" t="s">
         <v>90</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>117</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D81" s="8">
         <v>814</v>
@@ -3901,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D82" s="10">
         <v>1346</v>
@@ -3936,7 +3936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D83" s="10">
         <v>1222</v>
@@ -3971,7 +3971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D84" s="10">
         <v>1297</v>
@@ -4006,7 +4006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D85" s="10">
         <v>1260</v>
@@ -4041,7 +4041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D86" s="10">
         <v>1333</v>
@@ -4076,7 +4076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D87" s="10">
         <v>1347</v>
@@ -4111,7 +4111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D88" s="10">
         <v>1335</v>
@@ -4146,7 +4146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D89" s="10">
         <v>1280</v>
@@ -4181,7 +4181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="D90" s="10">
         <v>1245</v>
@@ -4216,7 +4216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D91" s="10">
         <v>1303</v>
@@ -4252,7 +4252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D92" s="10">
         <v>1314</v>
@@ -4287,7 +4287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D93" s="10">
         <v>1250</v>
@@ -4322,14 +4322,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B94" s="2"/>
       <c r="G94" s="9"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4340,5395 +4340,5395 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
     </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
     </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
     </row>
-    <row r="234" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
     </row>
-    <row r="239" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
     </row>
-    <row r="240" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
     </row>
-    <row r="241" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
     </row>
-    <row r="243" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
     </row>
-    <row r="244" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
     </row>
-    <row r="245" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
     </row>
-    <row r="246" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
     </row>
-    <row r="247" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
     </row>
-    <row r="249" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
     </row>
-    <row r="251" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
     </row>
-    <row r="255" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
     </row>
-    <row r="256" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
     </row>
-    <row r="259" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
     </row>
-    <row r="260" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
     </row>
-    <row r="261" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
     </row>
-    <row r="262" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
     </row>
-    <row r="263" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
     </row>
-    <row r="265" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
     </row>
-    <row r="266" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
     </row>
-    <row r="267" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
     </row>
-    <row r="268" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
     </row>
-    <row r="269" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
     </row>
-    <row r="270" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
     </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
     </row>
-    <row r="275" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
     </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
     </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
     </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
     </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
     </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
     </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
     </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
     </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
     </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
     </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
     </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
     </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
     </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
     </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
     </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
     </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
     </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
     </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
     </row>
-    <row r="296" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
     </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
     </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
     </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
     </row>
-    <row r="305" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
     </row>
-    <row r="306" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
     </row>
-    <row r="307" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
     </row>
-    <row r="308" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
     </row>
-    <row r="309" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
     </row>
-    <row r="310" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
     </row>
-    <row r="311" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
     </row>
-    <row r="312" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
     </row>
-    <row r="313" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
     </row>
-    <row r="314" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
     </row>
-    <row r="316" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
     </row>
-    <row r="317" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
     </row>
-    <row r="318" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
     </row>
-    <row r="319" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
     </row>
-    <row r="320" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
     </row>
-    <row r="321" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
     </row>
-    <row r="323" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
     </row>
-    <row r="324" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
     </row>
-    <row r="325" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
     </row>
-    <row r="326" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
     </row>
-    <row r="327" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
     </row>
-    <row r="328" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
     </row>
-    <row r="329" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
     </row>
-    <row r="330" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
     </row>
-    <row r="331" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
     </row>
-    <row r="332" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
     </row>
-    <row r="333" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
     </row>
-    <row r="334" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
     </row>
-    <row r="335" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
     </row>
-    <row r="337" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
     </row>
-    <row r="338" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
     </row>
-    <row r="339" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
     </row>
-    <row r="340" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
     </row>
-    <row r="341" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
     </row>
-    <row r="342" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
     </row>
-    <row r="343" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
     </row>
-    <row r="344" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
     </row>
-    <row r="345" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
     </row>
-    <row r="346" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
     </row>
-    <row r="347" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
     </row>
-    <row r="349" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
     </row>
-    <row r="350" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
     </row>
-    <row r="356" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
     </row>
-    <row r="357" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
     </row>
-    <row r="360" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
     </row>
-    <row r="361" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
     </row>
-    <row r="362" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
     </row>
-    <row r="364" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
     </row>
-    <row r="369" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
     </row>
-    <row r="370" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
     </row>
-    <row r="371" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
     </row>
-    <row r="372" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
     </row>
-    <row r="373" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
     </row>
-    <row r="375" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
     </row>
-    <row r="376" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
     </row>
-    <row r="377" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
     </row>
-    <row r="378" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
     </row>
-    <row r="379" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
     </row>
-    <row r="380" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
     </row>
-    <row r="381" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
     </row>
-    <row r="382" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
     </row>
-    <row r="383" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
     </row>
-    <row r="384" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
     </row>
-    <row r="386" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
     </row>
-    <row r="387" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
     </row>
-    <row r="388" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
     </row>
-    <row r="390" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
     </row>
-    <row r="391" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
     </row>
-    <row r="392" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
     </row>
-    <row r="393" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
     </row>
-    <row r="394" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
     </row>
-    <row r="395" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
     </row>
-    <row r="396" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
     </row>
-    <row r="397" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
     </row>
-    <row r="398" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
     </row>
-    <row r="399" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
     </row>
-    <row r="400" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
     </row>
-    <row r="401" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
     </row>
-    <row r="402" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
     </row>
-    <row r="403" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
     </row>
-    <row r="404" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
     </row>
-    <row r="405" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
     </row>
-    <row r="406" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
     </row>
-    <row r="407" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
     </row>
-    <row r="408" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
     </row>
-    <row r="409" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
     </row>
-    <row r="410" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
     </row>
-    <row r="411" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
     </row>
-    <row r="412" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
     </row>
-    <row r="413" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
     </row>
-    <row r="414" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
     </row>
-    <row r="415" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
     </row>
-    <row r="416" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
     </row>
-    <row r="417" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
     </row>
-    <row r="418" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
     </row>
-    <row r="419" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
     </row>
-    <row r="420" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
     </row>
-    <row r="421" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
     </row>
-    <row r="422" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
     </row>
-    <row r="423" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
     </row>
-    <row r="424" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
     </row>
-    <row r="426" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
     </row>
-    <row r="427" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
     </row>
-    <row r="428" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
     </row>
-    <row r="429" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
     </row>
-    <row r="430" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
     </row>
-    <row r="431" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
     </row>
-    <row r="433" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
     </row>
-    <row r="434" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
     </row>
-    <row r="435" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
     </row>
-    <row r="436" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
     </row>
-    <row r="437" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
     </row>
-    <row r="438" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
     </row>
-    <row r="439" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
     </row>
-    <row r="440" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
     </row>
-    <row r="441" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
     </row>
-    <row r="442" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
     </row>
-    <row r="443" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
     </row>
-    <row r="444" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
     </row>
-    <row r="445" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
     </row>
-    <row r="446" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
     </row>
-    <row r="447" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
     </row>
-    <row r="448" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
     </row>
-    <row r="449" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
     </row>
-    <row r="450" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
     </row>
-    <row r="451" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
     </row>
-    <row r="452" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
     </row>
-    <row r="453" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
     </row>
-    <row r="454" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
     </row>
-    <row r="455" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
     </row>
-    <row r="456" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
     </row>
-    <row r="457" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
     </row>
-    <row r="458" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
     </row>
-    <row r="459" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
     </row>
-    <row r="460" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
     </row>
-    <row r="461" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
     </row>
-    <row r="462" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
     </row>
-    <row r="463" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
     </row>
-    <row r="464" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
     </row>
-    <row r="465" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
     </row>
-    <row r="466" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
     </row>
-    <row r="467" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
     </row>
-    <row r="468" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
     </row>
-    <row r="469" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
     </row>
-    <row r="470" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
     </row>
-    <row r="471" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
     </row>
-    <row r="472" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
     </row>
-    <row r="473" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
     </row>
-    <row r="474" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
     </row>
-    <row r="475" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
     </row>
-    <row r="477" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
     </row>
-    <row r="478" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
     </row>
-    <row r="479" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
     </row>
-    <row r="480" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
     </row>
-    <row r="481" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
     </row>
-    <row r="482" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
     </row>
-    <row r="483" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
     </row>
-    <row r="484" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
     </row>
-    <row r="485" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
     </row>
-    <row r="486" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
     </row>
-    <row r="487" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
     </row>
-    <row r="488" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
     </row>
-    <row r="489" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
     </row>
-    <row r="490" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
     </row>
-    <row r="491" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
     </row>
-    <row r="492" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
     </row>
-    <row r="493" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
     </row>
-    <row r="494" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
     </row>
-    <row r="495" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
     </row>
-    <row r="496" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
     </row>
-    <row r="497" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
     </row>
-    <row r="498" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
     </row>
-    <row r="499" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
     </row>
-    <row r="500" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
     </row>
-    <row r="501" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
     </row>
-    <row r="502" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
     </row>
-    <row r="503" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
     </row>
-    <row r="504" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
     </row>
-    <row r="505" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
     </row>
-    <row r="506" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
     </row>
-    <row r="507" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
     </row>
-    <row r="508" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
     </row>
-    <row r="509" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
     </row>
-    <row r="510" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
     </row>
-    <row r="511" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
     </row>
-    <row r="512" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
     </row>
-    <row r="513" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
     </row>
-    <row r="514" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
     </row>
-    <row r="515" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
     </row>
-    <row r="516" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
     </row>
-    <row r="517" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
     </row>
-    <row r="518" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
     </row>
-    <row r="519" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
     </row>
-    <row r="520" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
     </row>
-    <row r="521" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
     </row>
-    <row r="522" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
     </row>
-    <row r="523" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
     </row>
-    <row r="524" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
     </row>
-    <row r="525" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
     </row>
-    <row r="526" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
     </row>
-    <row r="527" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
     </row>
-    <row r="528" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
     </row>
-    <row r="529" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
     </row>
-    <row r="530" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
     </row>
-    <row r="531" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
     </row>
-    <row r="532" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
     </row>
-    <row r="533" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
     </row>
-    <row r="534" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
     </row>
-    <row r="535" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
     </row>
-    <row r="536" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
     </row>
-    <row r="537" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
     </row>
-    <row r="538" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
     </row>
-    <row r="539" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
     </row>
-    <row r="540" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
     </row>
-    <row r="541" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
     </row>
-    <row r="542" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
     </row>
-    <row r="543" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
     </row>
-    <row r="544" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
     </row>
-    <row r="545" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
     </row>
-    <row r="546" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
     </row>
-    <row r="547" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
     </row>
-    <row r="548" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
     </row>
-    <row r="549" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
     </row>
-    <row r="550" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
     </row>
-    <row r="551" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
     </row>
-    <row r="552" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
     </row>
-    <row r="553" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
     </row>
-    <row r="554" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
     </row>
-    <row r="555" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
     </row>
-    <row r="556" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
     </row>
-    <row r="557" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
     </row>
-    <row r="558" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
     </row>
-    <row r="559" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
     </row>
-    <row r="560" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
     </row>
-    <row r="561" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
     </row>
-    <row r="562" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
     </row>
-    <row r="563" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
     </row>
-    <row r="564" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
     </row>
-    <row r="565" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
     </row>
-    <row r="566" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
     </row>
-    <row r="567" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
     </row>
-    <row r="568" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
     </row>
-    <row r="569" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
     </row>
-    <row r="570" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
     </row>
-    <row r="571" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
     </row>
-    <row r="572" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
     </row>
-    <row r="573" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
     </row>
-    <row r="574" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
     </row>
-    <row r="575" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
     </row>
-    <row r="576" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
     </row>
-    <row r="577" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
     </row>
-    <row r="578" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
     </row>
-    <row r="579" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
     </row>
-    <row r="580" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
     </row>
-    <row r="581" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
     </row>
-    <row r="582" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
     </row>
-    <row r="583" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
     </row>
-    <row r="584" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
     </row>
-    <row r="585" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
     </row>
-    <row r="586" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
     </row>
-    <row r="587" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
     </row>
-    <row r="588" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
     </row>
-    <row r="589" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
     </row>
-    <row r="590" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
     </row>
-    <row r="591" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
     </row>
-    <row r="592" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
     </row>
-    <row r="593" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
     </row>
-    <row r="594" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
     </row>
-    <row r="595" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
     </row>
-    <row r="596" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
     </row>
-    <row r="597" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
     </row>
-    <row r="598" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
     </row>
-    <row r="599" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
     </row>
-    <row r="600" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
     </row>
-    <row r="601" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
     </row>
-    <row r="602" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
     </row>
-    <row r="603" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
     </row>
-    <row r="604" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
     </row>
-    <row r="605" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
     </row>
-    <row r="606" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
     </row>
-    <row r="607" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
     </row>
-    <row r="608" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
     </row>
-    <row r="609" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
     </row>
-    <row r="610" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
     </row>
-    <row r="611" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
     </row>
-    <row r="612" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
     </row>
-    <row r="613" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
     </row>
-    <row r="614" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
     </row>
-    <row r="615" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
     </row>
-    <row r="616" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
     </row>
-    <row r="617" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
     </row>
-    <row r="618" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
     </row>
-    <row r="619" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
     </row>
-    <row r="620" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
     </row>
-    <row r="621" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
     </row>
-    <row r="622" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
     </row>
-    <row r="623" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
     </row>
-    <row r="624" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
     </row>
-    <row r="625" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
     </row>
-    <row r="626" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
     </row>
-    <row r="627" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
     </row>
-    <row r="628" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
     </row>
-    <row r="629" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
     </row>
-    <row r="630" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
     </row>
-    <row r="631" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
     </row>
-    <row r="632" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
     </row>
-    <row r="633" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
     </row>
-    <row r="634" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
     </row>
-    <row r="635" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
     </row>
-    <row r="636" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
     </row>
-    <row r="637" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
     </row>
-    <row r="638" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
     </row>
-    <row r="639" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
     </row>
-    <row r="640" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
     </row>
-    <row r="641" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
     </row>
-    <row r="642" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
     </row>
-    <row r="643" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
     </row>
-    <row r="644" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
     </row>
-    <row r="645" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
     </row>
-    <row r="646" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
     </row>
-    <row r="647" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
     </row>
-    <row r="648" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
     </row>
-    <row r="649" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
     </row>
-    <row r="650" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
     </row>
-    <row r="651" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
     </row>
-    <row r="652" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
     </row>
-    <row r="653" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
     </row>
-    <row r="654" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
     </row>
-    <row r="655" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
     </row>
-    <row r="656" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
     </row>
-    <row r="657" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
     </row>
-    <row r="658" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
     </row>
-    <row r="659" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
     </row>
-    <row r="660" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
     </row>
-    <row r="661" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
     </row>
-    <row r="662" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
     </row>
-    <row r="663" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
     </row>
-    <row r="664" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
     </row>
-    <row r="665" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
     </row>
-    <row r="666" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
     </row>
-    <row r="667" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
     </row>
-    <row r="668" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
     </row>
-    <row r="669" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
     </row>
-    <row r="670" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
     </row>
-    <row r="671" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
     </row>
-    <row r="672" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
     </row>
-    <row r="673" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
     </row>
-    <row r="674" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
     </row>
-    <row r="675" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
     </row>
-    <row r="676" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
     </row>
-    <row r="677" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
     </row>
-    <row r="678" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
     </row>
-    <row r="679" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
     </row>
-    <row r="680" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
     </row>
-    <row r="681" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
     </row>
-    <row r="682" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
     </row>
-    <row r="683" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
     </row>
-    <row r="684" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
     </row>
-    <row r="685" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
     </row>
-    <row r="686" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
     </row>
-    <row r="687" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
     </row>
-    <row r="688" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
     </row>
-    <row r="689" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
     </row>
-    <row r="690" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
     </row>
-    <row r="691" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
     </row>
-    <row r="692" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
     </row>
-    <row r="693" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
     </row>
-    <row r="694" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
     </row>
-    <row r="695" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
     </row>
-    <row r="696" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
     </row>
-    <row r="697" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
     </row>
-    <row r="698" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
     </row>
-    <row r="699" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
     </row>
-    <row r="700" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
     </row>
-    <row r="701" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
     </row>
-    <row r="702" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
     </row>
-    <row r="703" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
     </row>
-    <row r="704" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
     </row>
-    <row r="705" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
     </row>
-    <row r="706" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
     </row>
-    <row r="707" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
     </row>
-    <row r="708" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
     </row>
-    <row r="709" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
     </row>
-    <row r="710" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
     </row>
-    <row r="711" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
     </row>
-    <row r="712" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
     </row>
-    <row r="713" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
     </row>
-    <row r="714" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
     </row>
-    <row r="715" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
     </row>
-    <row r="716" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
     </row>
-    <row r="717" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
     </row>
-    <row r="718" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
     </row>
-    <row r="719" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
     </row>
-    <row r="720" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
     </row>
-    <row r="721" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
     </row>
-    <row r="722" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
     </row>
-    <row r="723" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
     </row>
-    <row r="724" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
     </row>
-    <row r="725" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
     </row>
-    <row r="726" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
     </row>
-    <row r="727" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
     </row>
-    <row r="728" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
     </row>
-    <row r="729" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
     </row>
-    <row r="730" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
     </row>
-    <row r="731" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
     </row>
-    <row r="732" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
     </row>
-    <row r="733" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
     </row>
-    <row r="734" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
     </row>
-    <row r="735" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
     </row>
-    <row r="736" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
     </row>
-    <row r="737" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
     </row>
-    <row r="738" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
     </row>
-    <row r="739" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
     </row>
-    <row r="740" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
     </row>
-    <row r="741" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
     </row>
-    <row r="742" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
     </row>
-    <row r="743" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
     </row>
-    <row r="744" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
     </row>
-    <row r="745" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
     </row>
-    <row r="746" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
     </row>
-    <row r="747" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
     </row>
-    <row r="748" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
     </row>
-    <row r="749" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
     </row>
-    <row r="750" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
     </row>
-    <row r="751" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
     </row>
-    <row r="752" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
     </row>
-    <row r="753" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
     </row>
-    <row r="754" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
     </row>
-    <row r="755" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
     </row>
-    <row r="756" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
     </row>
-    <row r="757" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
     </row>
-    <row r="758" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
     </row>
-    <row r="759" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
     </row>
-    <row r="760" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
     </row>
-    <row r="761" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
     </row>
-    <row r="762" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
     </row>
-    <row r="763" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
     </row>
-    <row r="764" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
     </row>
-    <row r="765" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
     </row>
-    <row r="766" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
     </row>
-    <row r="767" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
     </row>
-    <row r="768" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
     </row>
-    <row r="769" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
     </row>
-    <row r="770" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
     </row>
-    <row r="771" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
     </row>
-    <row r="772" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
     </row>
-    <row r="773" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
     </row>
-    <row r="774" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
     </row>
-    <row r="775" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
     </row>
-    <row r="776" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
     </row>
-    <row r="777" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
     </row>
-    <row r="778" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
     </row>
-    <row r="779" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
     </row>
-    <row r="780" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
     </row>
-    <row r="781" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
     </row>
-    <row r="782" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
     </row>
-    <row r="783" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
     </row>
-    <row r="784" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
     </row>
-    <row r="785" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
     </row>
-    <row r="786" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
     </row>
-    <row r="787" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
     </row>
-    <row r="788" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
     </row>
-    <row r="789" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
     </row>
-    <row r="790" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
     </row>
-    <row r="791" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
     </row>
-    <row r="792" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
     </row>
-    <row r="793" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
     </row>
-    <row r="794" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
     </row>
-    <row r="795" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
     </row>
-    <row r="796" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
     </row>
-    <row r="797" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
     </row>
-    <row r="798" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
     </row>
-    <row r="799" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
     </row>
-    <row r="800" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
     </row>
-    <row r="801" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
     </row>
-    <row r="802" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
     </row>
-    <row r="803" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
     </row>
-    <row r="804" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
     </row>
-    <row r="805" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
     </row>
-    <row r="806" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
     </row>
-    <row r="807" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
     </row>
-    <row r="808" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
     </row>
-    <row r="809" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
     </row>
-    <row r="810" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
     </row>
-    <row r="811" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
     </row>
-    <row r="812" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
     </row>
-    <row r="813" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
     </row>
-    <row r="814" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
     </row>
-    <row r="815" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
     </row>
-    <row r="816" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
     </row>
-    <row r="817" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
     </row>
-    <row r="818" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
     </row>
-    <row r="819" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
     </row>
-    <row r="820" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
     </row>
-    <row r="821" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
     </row>
-    <row r="822" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
     </row>
-    <row r="823" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
     </row>
-    <row r="824" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
     </row>
-    <row r="825" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
     </row>
-    <row r="826" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
     </row>
-    <row r="827" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
     </row>
-    <row r="828" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
     </row>
-    <row r="829" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
     </row>
-    <row r="830" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
     </row>
-    <row r="831" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
     </row>
-    <row r="832" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
     </row>
-    <row r="833" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
     </row>
-    <row r="834" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
     </row>
-    <row r="835" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
     </row>
-    <row r="836" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
     </row>
-    <row r="837" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
     </row>
-    <row r="838" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
     </row>
-    <row r="839" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
     </row>
-    <row r="840" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
     </row>
-    <row r="841" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
     </row>
-    <row r="842" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
     </row>
-    <row r="843" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
     </row>
-    <row r="844" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
     </row>
-    <row r="845" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
     </row>
-    <row r="846" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
     </row>
-    <row r="847" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
     </row>
-    <row r="848" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
     </row>
-    <row r="849" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
     </row>
-    <row r="850" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
     </row>
-    <row r="851" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
     </row>
-    <row r="852" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
     </row>
-    <row r="853" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
     </row>
-    <row r="854" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
     </row>
-    <row r="855" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
     </row>
-    <row r="856" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
     </row>
-    <row r="857" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
     </row>
-    <row r="858" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
     </row>
-    <row r="859" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
     </row>
-    <row r="860" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
     </row>
-    <row r="861" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
     </row>
-    <row r="862" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
     </row>
-    <row r="863" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
     </row>
-    <row r="864" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
     </row>
-    <row r="865" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
     </row>
-    <row r="866" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
     </row>
-    <row r="867" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
     </row>
-    <row r="868" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
     </row>
-    <row r="869" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
     </row>
-    <row r="870" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
     </row>
-    <row r="871" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
     </row>
-    <row r="872" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
     </row>
-    <row r="873" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
     </row>
-    <row r="874" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
     </row>
-    <row r="875" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
     </row>
-    <row r="876" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
     </row>
-    <row r="877" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
     </row>
-    <row r="878" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
     </row>
-    <row r="879" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
     </row>
-    <row r="880" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
     </row>
-    <row r="881" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
     </row>
-    <row r="882" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
     </row>
-    <row r="883" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
     </row>
-    <row r="884" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
     </row>
-    <row r="885" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
     </row>
-    <row r="886" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
     </row>
-    <row r="887" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
     </row>
-    <row r="888" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
     </row>
-    <row r="889" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
     </row>
-    <row r="890" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
     </row>
-    <row r="891" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
     </row>
-    <row r="892" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
     </row>
-    <row r="893" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
     </row>
-    <row r="894" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
     </row>
-    <row r="895" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
     </row>
-    <row r="896" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
     </row>
-    <row r="897" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
     </row>
-    <row r="898" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
     </row>
-    <row r="899" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
     </row>
-    <row r="900" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
     </row>
-    <row r="901" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
     </row>
-    <row r="902" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
     </row>
-    <row r="903" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
     </row>
-    <row r="904" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
     </row>
-    <row r="905" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
     </row>
-    <row r="906" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
     </row>
-    <row r="907" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
     </row>
-    <row r="908" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
     </row>
-    <row r="909" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
     </row>
-    <row r="910" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
     </row>
-    <row r="911" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
     </row>
-    <row r="912" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
     </row>
-    <row r="913" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
     </row>
-    <row r="914" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
     </row>
-    <row r="915" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
     </row>
-    <row r="916" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
     </row>
-    <row r="917" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
     </row>
-    <row r="918" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
     </row>
-    <row r="919" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
     </row>
-    <row r="920" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
     </row>
-    <row r="921" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
     </row>
-    <row r="922" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
     </row>
-    <row r="923" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
     </row>
-    <row r="924" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
     </row>
-    <row r="925" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
     </row>
-    <row r="926" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
     </row>
-    <row r="927" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
     </row>
-    <row r="928" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
     </row>
-    <row r="929" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
     </row>
-    <row r="930" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
     </row>
-    <row r="931" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
     </row>
-    <row r="932" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
     </row>
-    <row r="933" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
     </row>
-    <row r="934" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
     </row>
-    <row r="935" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
     </row>
-    <row r="936" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
     </row>
-    <row r="937" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
     </row>
-    <row r="938" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
     </row>
-    <row r="939" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
     </row>
-    <row r="940" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
     </row>
-    <row r="941" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
     </row>
-    <row r="942" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
     </row>
-    <row r="943" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
     </row>
-    <row r="944" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
     </row>
-    <row r="945" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
     </row>
-    <row r="946" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
     </row>
-    <row r="947" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
     </row>
-    <row r="948" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
     </row>
-    <row r="949" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
     </row>
-    <row r="950" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
     </row>
-    <row r="951" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
     </row>
-    <row r="952" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
     </row>
-    <row r="953" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
     </row>
-    <row r="954" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
     </row>
-    <row r="955" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
     </row>
-    <row r="956" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
     </row>
-    <row r="957" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
     </row>
-    <row r="958" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
     </row>
-    <row r="959" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
     </row>
-    <row r="960" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
     </row>
-    <row r="961" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
     </row>
-    <row r="962" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
     </row>
-    <row r="963" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
     </row>
-    <row r="964" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
     </row>
-    <row r="965" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
     </row>
-    <row r="966" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
     </row>
-    <row r="967" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
     </row>
-    <row r="968" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
     </row>
-    <row r="969" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
     </row>
-    <row r="970" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
     </row>
-    <row r="971" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
     </row>
-    <row r="972" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
     </row>
-    <row r="973" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
     </row>
-    <row r="974" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
     </row>
-    <row r="975" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
     </row>
-    <row r="976" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
     </row>
-    <row r="977" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
     </row>
-    <row r="978" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
     </row>
-    <row r="979" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
     </row>
-    <row r="980" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
     </row>
-    <row r="981" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
     </row>
-    <row r="982" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
     </row>
-    <row r="983" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
     </row>
-    <row r="984" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
     </row>
-    <row r="985" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
     </row>
-    <row r="986" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
     </row>
-    <row r="987" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
     </row>
-    <row r="988" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
     </row>
-    <row r="989" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
     </row>
-    <row r="990" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
     </row>
-    <row r="991" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
     </row>
-    <row r="992" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
     </row>
-    <row r="993" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
     </row>
-    <row r="994" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>

--- a/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
+++ b/Projekt_zaliczeniowy/dataSheet/SZCZYTY.xlsx
@@ -5,27 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\STUDIA\Systemy wspomagania decyzji\ostatyeczny\SWD\Projekt_zaliczeniowy\dataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majka\OneDrive\Pulpit\AGH\5 semestr\Systemy Wspomagania Decyzji\Zadanie grupowe\SWD\Projekt_zaliczeniowy\dataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110D424C-13C2-4D43-8693-6C6D5978269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208A959C-265F-4875-8981-0681E2D44E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="1908" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -810,17 +800,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1046,24 +1036,24 @@
   </sheetPr>
   <dimension ref="A1:K994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="54.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="54.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" thickBot="1">
@@ -1080,13 +1070,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -1101,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13" thickBot="1">
+    <row r="2" spans="1:11" ht="13.8" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1115,28 +1105,28 @@
         <v>1725</v>
       </c>
       <c r="E2" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>345</v>
+      </c>
+      <c r="G2" s="7">
         <v>860</v>
       </c>
-      <c r="F2" s="7">
-        <v>13.4</v>
-      </c>
-      <c r="G2" s="7">
-        <v>345</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>-10</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>22</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>4.5</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="38" thickBot="1">
+    <row r="3" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1150,28 +1140,28 @@
         <v>1173</v>
       </c>
       <c r="E3" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F3" s="7">
+        <v>208</v>
+      </c>
+      <c r="G3" s="7">
         <v>580</v>
       </c>
-      <c r="F3" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G3" s="7">
-        <v>208</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>-12</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>20</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>3.8</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13" thickBot="1">
+    <row r="4" spans="1:11" ht="13.8" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1185,28 +1175,28 @@
         <v>1257</v>
       </c>
       <c r="E4" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7">
         <v>869</v>
       </c>
-      <c r="F4" s="7">
-        <v>14.6</v>
-      </c>
-      <c r="G4" s="7">
-        <v>300</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>-15</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>18</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>4.2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13" thickBot="1">
+    <row r="5" spans="1:11" ht="13.8" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1220,28 +1210,28 @@
         <v>1262</v>
       </c>
       <c r="E5" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7">
         <v>514</v>
       </c>
-      <c r="F5" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="G5" s="7">
-        <v>135</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>-11</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>21</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25.5" thickBot="1">
+    <row r="6" spans="1:11" ht="27" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1255,28 +1245,28 @@
         <v>904</v>
       </c>
       <c r="E6" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>139</v>
+      </c>
+      <c r="G6" s="7">
         <v>259</v>
       </c>
-      <c r="F6" s="7">
-        <v>7.4</v>
-      </c>
-      <c r="G6" s="7">
-        <v>139</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>-14</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>19</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>3.5</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="38" thickBot="1">
+    <row r="7" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1290,28 +1280,28 @@
         <v>1310</v>
       </c>
       <c r="E7" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>309</v>
+      </c>
+      <c r="G7" s="7">
         <v>720</v>
       </c>
-      <c r="F7" s="7">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G7" s="7">
-        <v>309</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>-18</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>17</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>4</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="38" thickBot="1">
+    <row r="8" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1325,28 +1315,28 @@
         <v>922</v>
       </c>
       <c r="E8" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>127</v>
+      </c>
+      <c r="G8" s="7">
         <v>419</v>
       </c>
-      <c r="F8" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="G8" s="7">
-        <v>127</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>-13</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>3.7</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" thickBot="1">
+    <row r="9" spans="1:11" ht="27" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1360,28 +1350,28 @@
         <v>950</v>
       </c>
       <c r="E9" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F9" s="7">
+        <v>177</v>
+      </c>
+      <c r="G9" s="7">
         <v>475</v>
       </c>
-      <c r="F9" s="7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G9" s="7">
-        <v>177</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>-8</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>23</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>4.3</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="50.5" thickBot="1">
+    <row r="10" spans="1:11" ht="66.599999999999994" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1395,28 +1385,28 @@
         <v>1220</v>
       </c>
       <c r="E10" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>345</v>
+      </c>
+      <c r="G10" s="7">
         <v>701</v>
       </c>
-      <c r="F10" s="7">
-        <v>18.2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>345</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>-16</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>18</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25.5" thickBot="1">
+    <row r="11" spans="1:11" ht="27" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1430,28 +1420,28 @@
         <v>1274</v>
       </c>
       <c r="E11" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>295</v>
+      </c>
+      <c r="G11" s="7">
         <v>726</v>
       </c>
-      <c r="F11" s="7">
-        <v>14.2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>295</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>-12</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>21</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>3.5</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="25.5" thickBot="1">
+    <row r="12" spans="1:11" ht="27" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1465,28 +1455,28 @@
         <v>1117</v>
       </c>
       <c r="E12" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>232</v>
+      </c>
+      <c r="G12" s="7">
         <v>637</v>
       </c>
-      <c r="F12" s="7">
-        <v>10.9</v>
-      </c>
-      <c r="G12" s="7">
-        <v>232</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>-14</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>19</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>4</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="38.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="38.549999999999997" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1500,28 +1490,28 @@
         <v>1211</v>
       </c>
       <c r="E13" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7">
+        <v>158</v>
+      </c>
+      <c r="G13" s="7">
         <v>549</v>
       </c>
-      <c r="F13" s="7">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7">
-        <v>158</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>-13</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>20</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>3.6</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="25.5" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -1535,28 +1525,28 @@
         <v>1556</v>
       </c>
       <c r="E14" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="F14" s="7">
+        <v>251</v>
+      </c>
+      <c r="G14" s="7">
         <v>789</v>
       </c>
-      <c r="F14" s="7">
-        <v>11.6</v>
-      </c>
-      <c r="G14" s="7">
-        <v>251</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>-17</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>17</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>4.2</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13" thickBot="1">
+    <row r="15" spans="1:11" ht="13.8" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1570,28 +1560,28 @@
         <v>1236</v>
       </c>
       <c r="E15" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="F15" s="7">
+        <v>228</v>
+      </c>
+      <c r="G15" s="7">
         <v>512</v>
       </c>
-      <c r="F15" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="G15" s="7">
-        <v>228</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>-20</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>16</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>4</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="38" thickBot="1">
+    <row r="16" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1605,28 +1595,28 @@
         <v>1155</v>
       </c>
       <c r="E16" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>172</v>
+      </c>
+      <c r="G16" s="7">
         <v>331</v>
       </c>
-      <c r="F16" s="7">
-        <v>7.4</v>
-      </c>
-      <c r="G16" s="7">
-        <v>172</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>-10</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>22</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>3.7</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="38" thickBot="1">
+    <row r="17" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1640,28 +1630,28 @@
         <v>983</v>
       </c>
       <c r="E17" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>310</v>
+      </c>
+      <c r="G17" s="7">
         <v>561</v>
       </c>
-      <c r="F17" s="7">
-        <v>13.2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>310</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>-11</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>21</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>3.6</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13" thickBot="1">
+    <row r="18" spans="1:11" ht="13.8" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1675,28 +1665,28 @@
         <v>761</v>
       </c>
       <c r="E18" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>132</v>
+      </c>
+      <c r="G18" s="7">
         <v>354</v>
       </c>
-      <c r="F18" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>132</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>-14</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>19</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>3.8</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13" thickBot="1">
+    <row r="19" spans="1:11" ht="13.8" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1710,28 +1700,28 @@
         <v>1023</v>
       </c>
       <c r="E19" s="7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>364</v>
+      </c>
+      <c r="G19" s="7">
         <v>667</v>
       </c>
-      <c r="F19" s="7">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G19" s="7">
-        <v>364</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>-8</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>23</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>4</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="25.5" thickBot="1">
+    <row r="20" spans="1:11" ht="27" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1745,28 +1735,28 @@
         <v>1080</v>
       </c>
       <c r="E20" s="7">
+        <v>31.4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>432</v>
+      </c>
+      <c r="G20" s="7">
         <v>1258</v>
       </c>
-      <c r="F20" s="7">
-        <v>31.4</v>
-      </c>
-      <c r="G20" s="7">
-        <v>432</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>-15</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>18</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>3.6</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25.5" thickBot="1">
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1780,28 +1770,28 @@
         <v>933</v>
       </c>
       <c r="E21" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="F21" s="7">
+        <v>129</v>
+      </c>
+      <c r="G21" s="7">
         <v>400</v>
       </c>
-      <c r="F21" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="G21" s="7">
-        <v>129</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>-12</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>20</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>3.8</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="25.5" thickBot="1">
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1815,13 +1805,13 @@
         <v>2501</v>
       </c>
       <c r="E22" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="F22" s="7">
+        <v>702</v>
+      </c>
+      <c r="G22" s="7">
         <v>1409</v>
-      </c>
-      <c r="F22" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="G22" s="7">
-        <v>702</v>
       </c>
       <c r="H22" s="7">
         <v>-17</v>
@@ -1829,14 +1819,14 @@
       <c r="I22" s="7">
         <v>11</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>4.8</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13" thickBot="1">
+    <row r="23" spans="1:11" ht="13.8" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1849,14 +1839,14 @@
       <c r="D23" s="7">
         <v>1987</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="F23" s="9">
+        <v>386</v>
+      </c>
+      <c r="G23" s="7">
         <v>950</v>
-      </c>
-      <c r="F23" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="G23" s="10">
-        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>-10</v>
@@ -1864,14 +1854,14 @@
       <c r="I23" s="7">
         <v>20</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>4.7</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="25.5" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1884,14 +1874,14 @@
       <c r="D24" s="7">
         <v>1895</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="F24" s="9">
+        <v>402</v>
+      </c>
+      <c r="G24" s="7">
         <v>909</v>
-      </c>
-      <c r="F24" s="10">
-        <v>11.8</v>
-      </c>
-      <c r="G24" s="10">
-        <v>402</v>
       </c>
       <c r="H24" s="7">
         <v>-12</v>
@@ -1899,14 +1889,14 @@
       <c r="I24" s="7">
         <v>18</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="25.5" thickBot="1">
+    <row r="25" spans="1:11" ht="27" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1919,14 +1909,14 @@
       <c r="D25" s="7">
         <v>2634</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="F25" s="9">
+        <v>330</v>
+      </c>
+      <c r="G25" s="7">
         <v>900</v>
-      </c>
-      <c r="F25" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="G25" s="10">
-        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>-10</v>
@@ -1934,14 +1924,14 @@
       <c r="I25" s="7">
         <v>5</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>4.5</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="25.5" thickBot="1">
+    <row r="26" spans="1:11" ht="27" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -1954,14 +1944,14 @@
       <c r="D26" s="7">
         <v>2301</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="9">
+        <v>18</v>
+      </c>
+      <c r="F26" s="9">
+        <v>632</v>
+      </c>
+      <c r="G26" s="7">
         <v>1096</v>
-      </c>
-      <c r="F26" s="10">
-        <v>18</v>
-      </c>
-      <c r="G26" s="10">
-        <v>632</v>
       </c>
       <c r="H26" s="7">
         <v>-16</v>
@@ -1969,14 +1959,14 @@
       <c r="I26" s="7">
         <v>14</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="25.5" thickBot="1">
+    <row r="27" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1989,14 +1979,14 @@
       <c r="D27" s="7">
         <v>2155</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="F27" s="9">
+        <v>486</v>
+      </c>
+      <c r="G27" s="7">
         <v>1138</v>
-      </c>
-      <c r="F27" s="10">
-        <v>15.8</v>
-      </c>
-      <c r="G27" s="10">
-        <v>486</v>
       </c>
       <c r="H27" s="7">
         <v>-12</v>
@@ -2004,14 +1994,14 @@
       <c r="I27" s="7">
         <v>9</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>4.5</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="25.5" thickBot="1">
+    <row r="28" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -2024,14 +2014,14 @@
       <c r="D28" s="7">
         <v>2627</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F28" s="9">
+        <v>600</v>
+      </c>
+      <c r="G28" s="7">
         <v>1617</v>
-      </c>
-      <c r="F28" s="10">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G28" s="10">
-        <v>600</v>
       </c>
       <c r="H28" s="7">
         <v>-18</v>
@@ -2039,14 +2029,14 @@
       <c r="I28" s="7">
         <v>5</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13" thickBot="1">
+    <row r="29" spans="1:11" ht="13.8" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2059,14 +2049,14 @@
       <c r="D29" s="7">
         <v>2601</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="9">
+        <v>14</v>
+      </c>
+      <c r="F29" s="9">
+        <v>600</v>
+      </c>
+      <c r="G29" s="7">
         <v>650</v>
-      </c>
-      <c r="F29" s="10">
-        <v>14</v>
-      </c>
-      <c r="G29" s="10">
-        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>-16</v>
@@ -2074,14 +2064,14 @@
       <c r="I29" s="7">
         <v>6</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>4.5</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="25.5" thickBot="1">
+    <row r="30" spans="1:11" ht="27" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2094,14 +2084,14 @@
       <c r="D30" s="7">
         <v>2623</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>380</v>
+      </c>
+      <c r="G30" s="7">
         <v>670</v>
-      </c>
-      <c r="F30" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="G30" s="10">
-        <v>380</v>
       </c>
       <c r="H30" s="7">
         <v>-12</v>
@@ -2109,14 +2099,14 @@
       <c r="I30" s="7">
         <v>5</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>4</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.5" thickBot="1">
+    <row r="31" spans="1:11" ht="27" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -2129,14 +2119,14 @@
       <c r="D31" s="7">
         <v>2495</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="F31" s="9">
+        <v>480</v>
+      </c>
+      <c r="G31" s="7">
         <v>1420</v>
-      </c>
-      <c r="F31" s="10">
-        <v>13.4</v>
-      </c>
-      <c r="G31" s="10">
-        <v>480</v>
       </c>
       <c r="H31" s="7">
         <v>-15</v>
@@ -2144,14 +2134,14 @@
       <c r="I31" s="7">
         <v>8</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13" thickBot="1">
+    <row r="32" spans="1:11" ht="27" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -2164,14 +2154,14 @@
       <c r="D32" s="7">
         <v>1788</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>128</v>
+      </c>
+      <c r="G32" s="7">
         <v>382</v>
-      </c>
-      <c r="F32" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="G32" s="10">
-        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>-10</v>
@@ -2179,14 +2169,14 @@
       <c r="I32" s="7">
         <v>18</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>4.2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="38" thickBot="1">
+    <row r="33" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -2199,14 +2189,14 @@
       <c r="D33" s="7">
         <v>2064</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="F33" s="9">
+        <v>656</v>
+      </c>
+      <c r="G33" s="7">
         <v>1094</v>
-      </c>
-      <c r="F33" s="10">
-        <v>19.2</v>
-      </c>
-      <c r="G33" s="10">
-        <v>656</v>
       </c>
       <c r="H33" s="7">
         <v>-16</v>
@@ -2214,14 +2204,14 @@
       <c r="I33" s="7">
         <v>23</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>4</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="38" thickBot="1">
+    <row r="34" spans="1:11" ht="40.200000000000003" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -2234,14 +2224,14 @@
       <c r="D34" s="7">
         <v>2291</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="9">
+        <v>20.6</v>
+      </c>
+      <c r="F34" s="9">
+        <v>608</v>
+      </c>
+      <c r="G34" s="7">
         <v>1528</v>
-      </c>
-      <c r="F34" s="10">
-        <v>20.6</v>
-      </c>
-      <c r="G34" s="10">
-        <v>608</v>
       </c>
       <c r="H34" s="7">
         <v>-15</v>
@@ -2249,14 +2239,14 @@
       <c r="I34" s="7">
         <v>16</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="25.5" thickBot="1">
+    <row r="35" spans="1:11" ht="27" thickBot="1">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -2269,14 +2259,14 @@
       <c r="D35" s="7">
         <v>2452</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="9">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9">
+        <v>644</v>
+      </c>
+      <c r="G35" s="7">
         <v>1457</v>
-      </c>
-      <c r="F35" s="10">
-        <v>15</v>
-      </c>
-      <c r="G35" s="10">
-        <v>644</v>
       </c>
       <c r="H35" s="7">
         <v>-16</v>
@@ -2284,14 +2274,14 @@
       <c r="I35" s="7">
         <v>20</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>3.6</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13" thickBot="1">
+    <row r="36" spans="1:11" ht="27" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -2304,14 +2294,14 @@
       <c r="D36" s="7">
         <v>2155</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9">
+        <v>240</v>
+      </c>
+      <c r="G36" s="7">
         <v>1196</v>
-      </c>
-      <c r="F36" s="10">
-        <v>10</v>
-      </c>
-      <c r="G36" s="10">
-        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>-10</v>
@@ -2319,14 +2309,14 @@
       <c r="I36" s="7">
         <v>17</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>4.2</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13" thickBot="1">
+    <row r="37" spans="1:11" ht="13.8" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2339,14 +2329,14 @@
       <c r="D37" s="7">
         <v>2248</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="9">
+        <v>24.2</v>
+      </c>
+      <c r="F37" s="9">
+        <v>648</v>
+      </c>
+      <c r="G37" s="7">
         <v>1305</v>
-      </c>
-      <c r="F37" s="10">
-        <v>24.2</v>
-      </c>
-      <c r="G37" s="10">
-        <v>648</v>
       </c>
       <c r="H37" s="7">
         <v>-19</v>
@@ -2354,14 +2344,14 @@
       <c r="I37" s="7">
         <v>10</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>4.3</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13" thickBot="1">
+    <row r="38" spans="1:11" ht="13.8" thickBot="1">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -2374,14 +2364,14 @@
       <c r="D38" s="7">
         <v>2178</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F38" s="9">
+        <v>552</v>
+      </c>
+      <c r="G38" s="7">
         <v>900</v>
-      </c>
-      <c r="F38" s="10">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G38" s="10">
-        <v>552</v>
       </c>
       <c r="H38" s="7">
         <v>-17</v>
@@ -2389,14 +2379,14 @@
       <c r="I38" s="7">
         <v>10</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>3.8</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13" thickBot="1">
+    <row r="39" spans="1:11" ht="13.8" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2409,14 +2399,14 @@
       <c r="D39" s="7">
         <v>1489</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="9">
+        <v>8</v>
+      </c>
+      <c r="F39" s="9">
+        <v>250</v>
+      </c>
+      <c r="G39" s="7">
         <v>530</v>
-      </c>
-      <c r="F39" s="10">
-        <v>8</v>
-      </c>
-      <c r="G39" s="10">
-        <v>250</v>
       </c>
       <c r="H39" s="7">
         <v>-12</v>
@@ -2424,14 +2414,14 @@
       <c r="I39" s="7">
         <v>26</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>3.7</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="50.5" thickBot="1">
+    <row r="40" spans="1:11" ht="53.4" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
@@ -2444,14 +2434,14 @@
       <c r="D40" s="7">
         <v>2430</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="9">
+        <v>24.2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>682</v>
+      </c>
+      <c r="G40" s="7">
         <v>1446</v>
-      </c>
-      <c r="F40" s="10">
-        <v>24.2</v>
-      </c>
-      <c r="G40" s="10">
-        <v>682</v>
       </c>
       <c r="H40" s="7">
         <v>-16</v>
@@ -2459,14 +2449,14 @@
       <c r="I40" s="7">
         <v>11</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="25.5" thickBot="1">
+    <row r="41" spans="1:11" ht="27" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -2479,14 +2469,14 @@
       <c r="D41" s="7">
         <v>2230</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="9">
+        <v>21</v>
+      </c>
+      <c r="F41" s="9">
+        <v>660</v>
+      </c>
+      <c r="G41" s="7">
         <v>1305</v>
-      </c>
-      <c r="F41" s="10">
-        <v>21</v>
-      </c>
-      <c r="G41" s="10">
-        <v>660</v>
       </c>
       <c r="H41" s="7">
         <v>-15</v>
@@ -2494,14 +2484,14 @@
       <c r="I41" s="7">
         <v>13</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>4</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13" thickBot="1">
+    <row r="42" spans="1:11" ht="13.8" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -2515,28 +2505,28 @@
         <v>1050</v>
       </c>
       <c r="E42" s="7">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7">
+        <v>110</v>
+      </c>
+      <c r="G42" s="7">
         <v>501</v>
       </c>
-      <c r="F42" s="7">
-        <v>4</v>
-      </c>
-      <c r="G42" s="7">
-        <v>110</v>
-      </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>-8</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>16</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>3.9</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="25.5" thickBot="1">
+    <row r="43" spans="1:11" ht="27" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
@@ -2550,28 +2540,28 @@
         <v>982</v>
       </c>
       <c r="E43" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>117</v>
+      </c>
+      <c r="G43" s="7">
         <v>548</v>
       </c>
-      <c r="F43" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="G43" s="7">
-        <v>117</v>
-      </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>-10</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>20</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>4.3</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="25.5" thickBot="1">
+    <row r="44" spans="1:11" ht="27" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -2585,28 +2575,28 @@
         <v>966</v>
       </c>
       <c r="E44" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="F44" s="7">
+        <v>151</v>
+      </c>
+      <c r="G44" s="7">
         <v>494</v>
       </c>
-      <c r="F44" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="G44" s="7">
-        <v>151</v>
-      </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>-12</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>14</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>3.6</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="25.5" thickBot="1">
+    <row r="45" spans="1:11" ht="27" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -2620,24 +2610,24 @@
         <v>960</v>
       </c>
       <c r="E45" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="F45" s="7">
+        <v>142</v>
+      </c>
+      <c r="G45" s="7">
         <v>517</v>
       </c>
-      <c r="F45" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="G45" s="7">
-        <v>142</v>
-      </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>-7</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>18</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>3.7</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="9">
         <v>13</v>
       </c>
     </row>
@@ -2655,24 +2645,24 @@
         <v>942</v>
       </c>
       <c r="E46" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="F46" s="7">
+        <v>125</v>
+      </c>
+      <c r="G46" s="7">
         <v>430</v>
       </c>
-      <c r="F46" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="G46" s="7">
-        <v>125</v>
-      </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>-9</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>17</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>3.6</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>11</v>
       </c>
     </row>
@@ -2690,24 +2680,24 @@
         <v>939</v>
       </c>
       <c r="E47" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="F47" s="7">
+        <v>108</v>
+      </c>
+      <c r="G47" s="7">
         <v>446</v>
       </c>
-      <c r="F47" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="G47" s="7">
-        <v>108</v>
-      </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>-14</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <v>13</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>3.5</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="9">
         <v>10</v>
       </c>
     </row>
@@ -2725,24 +2715,24 @@
         <v>725</v>
       </c>
       <c r="E48" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="F48" s="7">
+        <v>69</v>
+      </c>
+      <c r="G48" s="7">
         <v>174</v>
       </c>
-      <c r="F48" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="G48" s="7">
-        <v>69</v>
-      </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>-11</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <v>15</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="9">
         <v>3.7</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="9">
         <v>6</v>
       </c>
     </row>
@@ -2760,24 +2750,24 @@
         <v>899</v>
       </c>
       <c r="E49" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F49" s="7">
+        <v>105</v>
+      </c>
+      <c r="G49" s="7">
         <v>396</v>
       </c>
-      <c r="F49" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G49" s="7">
-        <v>105</v>
-      </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>-8</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <v>19</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>3.9</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="9">
         <v>9</v>
       </c>
     </row>
@@ -2795,24 +2785,24 @@
         <v>889</v>
       </c>
       <c r="E50" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F50" s="7">
+        <v>128</v>
+      </c>
+      <c r="G50" s="7">
         <v>467</v>
       </c>
-      <c r="F50" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="G50" s="7">
-        <v>128</v>
-      </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>-10</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <v>17</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="9">
         <v>3.6</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <v>11</v>
       </c>
     </row>
@@ -2830,24 +2820,24 @@
         <v>883</v>
       </c>
       <c r="E51" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="F51" s="7">
+        <v>121</v>
+      </c>
+      <c r="G51" s="7">
         <v>364</v>
       </c>
-      <c r="F51" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G51" s="7">
-        <v>121</v>
-      </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>-7</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <v>18</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>3.8</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>10</v>
       </c>
     </row>
@@ -2865,24 +2855,24 @@
         <v>840</v>
       </c>
       <c r="E52" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="F52" s="7">
+        <v>143</v>
+      </c>
+      <c r="G52" s="7">
         <v>485</v>
       </c>
-      <c r="F52" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="G52" s="7">
-        <v>143</v>
-      </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>-9</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="9">
         <v>16</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="9">
         <v>3.7</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>12</v>
       </c>
     </row>
@@ -2900,24 +2890,24 @@
         <v>722</v>
       </c>
       <c r="E53" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="F53" s="7">
+        <v>44</v>
+      </c>
+      <c r="G53" s="7">
         <v>261</v>
       </c>
-      <c r="F53" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="G53" s="7">
-        <v>44</v>
-      </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>-6</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <v>21</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="9">
         <v>4.2</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <v>5</v>
       </c>
     </row>
@@ -2935,24 +2925,24 @@
         <v>818</v>
       </c>
       <c r="E54" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F54" s="7">
+        <v>61</v>
+      </c>
+      <c r="G54" s="7">
         <v>232</v>
       </c>
-      <c r="F54" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="G54" s="7">
-        <v>61</v>
-      </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>-12</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="9">
         <v>15</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="9">
         <v>3.6</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="9">
         <v>6</v>
       </c>
     </row>
@@ -2970,24 +2960,24 @@
         <v>799</v>
       </c>
       <c r="E55" s="7">
+        <v>4</v>
+      </c>
+      <c r="F55" s="7">
+        <v>102</v>
+      </c>
+      <c r="G55" s="7">
         <v>415</v>
       </c>
-      <c r="F55" s="7">
-        <v>4</v>
-      </c>
-      <c r="G55" s="7">
-        <v>102</v>
-      </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>-8</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="9">
         <v>17</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="9">
         <v>3.8</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="9">
         <v>9</v>
       </c>
     </row>
@@ -3005,24 +2995,24 @@
         <v>794</v>
       </c>
       <c r="E56" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="F56" s="7">
+        <v>93</v>
+      </c>
+      <c r="G56" s="7">
         <v>336</v>
       </c>
-      <c r="F56" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="G56" s="7">
-        <v>93</v>
-      </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>-7</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="9">
         <v>18</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="9">
         <v>3.7</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="9">
         <v>9</v>
       </c>
     </row>
@@ -3040,24 +3030,24 @@
         <v>777</v>
       </c>
       <c r="E57" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="F57" s="7">
+        <v>65</v>
+      </c>
+      <c r="G57" s="7">
         <v>177</v>
       </c>
-      <c r="F57" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="G57" s="7">
-        <v>65</v>
-      </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>-13</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="9">
         <v>14</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="9">
         <v>3.6</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="9">
         <v>6</v>
       </c>
     </row>
@@ -3075,24 +3065,24 @@
         <v>774</v>
       </c>
       <c r="E58" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="F58" s="7">
+        <v>66</v>
+      </c>
+      <c r="G58" s="7">
         <v>309</v>
       </c>
-      <c r="F58" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="G58" s="7">
-        <v>66</v>
-      </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>-10</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="9">
         <v>16</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="9">
         <v>3.7</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3110,24 +3100,24 @@
         <v>772</v>
       </c>
       <c r="E59" s="7">
+        <v>3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>76</v>
+      </c>
+      <c r="G59" s="7">
         <v>354</v>
       </c>
-      <c r="F59" s="7">
-        <v>3</v>
-      </c>
-      <c r="G59" s="7">
-        <v>76</v>
-      </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>-9</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="9">
         <v>17</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="9">
         <v>3.7</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3145,24 +3135,24 @@
         <v>747</v>
       </c>
       <c r="E60" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F60" s="7">
+        <v>88</v>
+      </c>
+      <c r="G60" s="7">
         <v>402</v>
       </c>
-      <c r="F60" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="G60" s="7">
-        <v>88</v>
-      </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>-7</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="9">
         <v>20</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="9">
         <v>4</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="9">
         <v>9</v>
       </c>
     </row>
@@ -3180,24 +3170,24 @@
         <v>742</v>
       </c>
       <c r="E61" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F61" s="7">
+        <v>65</v>
+      </c>
+      <c r="G61" s="7">
         <v>309</v>
       </c>
-      <c r="F61" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G61" s="7">
-        <v>65</v>
-      </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>-8</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="9">
         <v>18</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="9">
         <v>3.7</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3215,24 +3205,24 @@
         <v>1122</v>
       </c>
       <c r="E62" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="F62" s="7">
+        <v>249</v>
+      </c>
+      <c r="G62" s="7">
         <v>405</v>
       </c>
-      <c r="F62" s="7">
-        <v>14.1</v>
-      </c>
-      <c r="G62" s="7">
-        <v>249</v>
-      </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>-11</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="9">
         <v>15</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="9">
         <v>3.6</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="9">
         <v>20</v>
       </c>
     </row>
@@ -3250,24 +3240,24 @@
         <v>1106</v>
       </c>
       <c r="E63" s="7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F63" s="7">
+        <v>350</v>
+      </c>
+      <c r="G63" s="7">
         <v>657</v>
       </c>
-      <c r="F63" s="7">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G63" s="7">
-        <v>350</v>
-      </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>-14</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="9">
         <v>13</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>3.6</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="9">
         <v>27</v>
       </c>
     </row>
@@ -3285,24 +3275,24 @@
         <v>1361</v>
       </c>
       <c r="E64" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="F64" s="7">
+        <v>224</v>
+      </c>
+      <c r="G64" s="7">
         <v>655</v>
       </c>
-      <c r="F64" s="7">
-        <v>10.3</v>
-      </c>
-      <c r="G64" s="7">
-        <v>224</v>
-      </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>-10</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="9">
         <v>16</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="9">
         <v>3.9</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="9">
         <v>18</v>
       </c>
     </row>
@@ -3320,24 +3310,24 @@
         <v>1470</v>
       </c>
       <c r="E65" s="7">
+        <v>20</v>
+      </c>
+      <c r="F65" s="7">
+        <v>405</v>
+      </c>
+      <c r="G65" s="7">
         <v>1029</v>
       </c>
-      <c r="F65" s="7">
-        <v>20</v>
-      </c>
-      <c r="G65" s="7">
-        <v>405</v>
-      </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>-12</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="9">
         <v>14</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="9">
         <v>3.6</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="9">
         <v>31</v>
       </c>
     </row>
@@ -3355,24 +3345,24 @@
         <v>1039</v>
       </c>
       <c r="E66" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="F66" s="7">
+        <v>216</v>
+      </c>
+      <c r="G66" s="7">
         <v>613</v>
       </c>
-      <c r="F66" s="7">
-        <v>10.3</v>
-      </c>
-      <c r="G66" s="7">
-        <v>216</v>
-      </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>-7</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="9">
         <v>18</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="9">
         <v>3.7</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="9">
         <v>18</v>
       </c>
     </row>
@@ -3390,24 +3380,24 @@
         <v>1421</v>
       </c>
       <c r="E67" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="F67" s="7">
+        <v>265</v>
+      </c>
+      <c r="G67" s="7">
         <v>766</v>
       </c>
-      <c r="F67" s="7">
-        <v>12.4</v>
-      </c>
-      <c r="G67" s="7">
-        <v>265</v>
-      </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>-9</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="9">
         <v>17</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="9">
         <v>3.6</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67" s="9">
         <v>21</v>
       </c>
     </row>
@@ -3425,24 +3415,24 @@
         <v>1603</v>
       </c>
       <c r="E68" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="F68" s="7">
+        <v>322</v>
+      </c>
+      <c r="G68" s="7">
         <v>910</v>
       </c>
-      <c r="F68" s="7">
-        <v>15.1</v>
-      </c>
-      <c r="G68" s="7">
-        <v>322</v>
-      </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>-15</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="9">
         <v>10</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="9">
         <v>4.5</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="9">
         <v>26</v>
       </c>
     </row>
@@ -3460,24 +3450,24 @@
         <v>722</v>
       </c>
       <c r="E69" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F69" s="7">
+        <v>44</v>
+      </c>
+      <c r="G69" s="7">
         <v>151</v>
       </c>
-      <c r="F69" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G69" s="7">
-        <v>44</v>
-      </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>-8</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="9">
         <v>18</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J69" s="9">
         <v>3.7</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K69" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3495,24 +3485,24 @@
         <v>1517</v>
       </c>
       <c r="E70" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="F70" s="7">
+        <v>268</v>
+      </c>
+      <c r="G70" s="7">
         <v>851</v>
       </c>
-      <c r="F70" s="7">
-        <v>12.3</v>
-      </c>
-      <c r="G70" s="7">
-        <v>268</v>
-      </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>-10</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="9">
         <v>16</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70" s="9">
         <v>3.6</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="9">
         <v>22</v>
       </c>
     </row>
@@ -3530,24 +3520,24 @@
         <v>1282</v>
       </c>
       <c r="E71" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="F71" s="7">
+        <v>188</v>
+      </c>
+      <c r="G71" s="7">
         <v>604</v>
       </c>
-      <c r="F71" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="G71" s="7">
-        <v>188</v>
-      </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>-7</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="9">
         <v>19</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="9">
         <v>3.8</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71" s="9">
         <v>16</v>
       </c>
     </row>
@@ -3565,24 +3555,24 @@
         <v>1282</v>
       </c>
       <c r="E72" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="F72" s="7">
+        <v>137</v>
+      </c>
+      <c r="G72" s="7">
         <v>311</v>
       </c>
-      <c r="F72" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="G72" s="7">
-        <v>137</v>
-      </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>-7</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="9">
         <v>19</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72" s="9">
         <v>3.8</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="9">
         <v>11</v>
       </c>
     </row>
@@ -3600,24 +3590,24 @@
         <v>1189</v>
       </c>
       <c r="E73" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="F73" s="7">
+        <v>228</v>
+      </c>
+      <c r="G73" s="7">
         <v>595</v>
       </c>
-      <c r="F73" s="7">
-        <v>11.4</v>
-      </c>
-      <c r="G73" s="7">
-        <v>228</v>
-      </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>-9</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="9">
         <v>17</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J73" s="9">
         <v>3.7</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73" s="9">
         <v>18</v>
       </c>
     </row>
@@ -3635,24 +3625,24 @@
         <v>843</v>
       </c>
       <c r="E74" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F74" s="7">
+        <v>334</v>
+      </c>
+      <c r="G74" s="7">
         <v>650</v>
       </c>
-      <c r="F74" s="7">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G74" s="7">
-        <v>334</v>
-      </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>-13</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="9">
         <v>14</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="9">
         <v>3.6</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K74" s="9">
         <v>24</v>
       </c>
     </row>
@@ -3670,24 +3660,24 @@
         <v>922</v>
       </c>
       <c r="E75" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F75" s="7">
+        <v>92</v>
+      </c>
+      <c r="G75" s="7">
         <v>204</v>
       </c>
-      <c r="F75" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G75" s="7">
-        <v>92</v>
-      </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>-12</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="9">
         <v>15</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J75" s="9">
         <v>3.7</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K75" s="9">
         <v>8</v>
       </c>
     </row>
@@ -3705,24 +3695,24 @@
         <v>751</v>
       </c>
       <c r="E76" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="F76" s="7">
+        <v>253</v>
+      </c>
+      <c r="G76" s="7">
         <v>300</v>
       </c>
-      <c r="F76" s="7">
-        <v>14.5</v>
-      </c>
-      <c r="G76" s="7">
-        <v>253</v>
-      </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>-7</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="9">
         <v>18</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="9">
         <v>3.6</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76" s="9">
         <v>18</v>
       </c>
     </row>
@@ -3740,24 +3730,24 @@
         <v>776</v>
       </c>
       <c r="E77" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F77" s="7">
+        <v>163</v>
+      </c>
+      <c r="G77" s="7">
         <v>436</v>
-      </c>
-      <c r="F77" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G77" s="7">
-        <v>163</v>
       </c>
       <c r="H77" s="7">
         <v>-5</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="9">
         <v>15</v>
       </c>
       <c r="J77" s="7">
         <v>3.8</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K77" s="9">
         <v>14</v>
       </c>
     </row>
@@ -3774,25 +3764,25 @@
       <c r="D78" s="7">
         <v>736</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="F78" s="7">
+        <v>210</v>
+      </c>
+      <c r="G78" s="10">
         <v>517</v>
       </c>
-      <c r="F78" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="G78" s="7">
-        <v>210</v>
-      </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>-6</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="9">
         <v>14</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78" s="9">
         <v>3.2</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78" s="9">
         <v>17</v>
       </c>
     </row>
@@ -3810,24 +3800,24 @@
         <v>1015</v>
       </c>
       <c r="E79" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="F79" s="7">
+        <v>217</v>
+      </c>
+      <c r="G79" s="7">
         <v>488</v>
       </c>
-      <c r="F79" s="7">
-        <v>11.6</v>
-      </c>
-      <c r="G79" s="7">
-        <v>217</v>
-      </c>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>-8</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="9">
         <v>12</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J79" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K79" s="9">
         <v>17</v>
       </c>
     </row>
@@ -3841,28 +3831,28 @@
       <c r="C80" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="11">
         <v>964</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="F80" s="11">
+        <v>428</v>
+      </c>
+      <c r="G80" s="11">
         <v>1078</v>
       </c>
-      <c r="F80" s="8">
-        <v>21.5</v>
-      </c>
-      <c r="G80" s="8">
-        <v>428</v>
-      </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>-4</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="9">
         <v>16</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J80" s="9">
         <v>3.9</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K80" s="9">
         <v>33</v>
       </c>
     </row>
@@ -3876,28 +3866,28 @@
       <c r="C81" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="11">
         <v>814</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F81" s="11">
+        <v>190</v>
+      </c>
+      <c r="G81" s="11">
         <v>375</v>
       </c>
-      <c r="F81" s="8">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G81" s="8">
-        <v>190</v>
-      </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>-7</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="9">
         <v>13</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J81" s="9">
         <v>3.4</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K81" s="9">
         <v>14</v>
       </c>
     </row>
@@ -3911,28 +3901,28 @@
       <c r="C82" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>1346</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="9">
+        <v>19</v>
+      </c>
+      <c r="F82" s="12">
+        <v>374</v>
+      </c>
+      <c r="G82" s="9">
         <v>895</v>
       </c>
-      <c r="F82" s="10">
-        <v>19</v>
-      </c>
-      <c r="G82" s="12">
-        <v>374</v>
-      </c>
-      <c r="H82" s="10">
+      <c r="H82" s="9">
         <v>-10</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="9">
         <v>11</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J82" s="9">
         <v>4.7</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K82" s="9">
         <v>28</v>
       </c>
     </row>
@@ -3946,28 +3936,28 @@
       <c r="C83" t="s">
         <v>172</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>1222</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="F83" s="12">
+        <v>285</v>
+      </c>
+      <c r="G83" s="9">
         <v>681</v>
       </c>
-      <c r="F83" s="10">
-        <v>14.3</v>
-      </c>
-      <c r="G83" s="12">
-        <v>285</v>
-      </c>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>-6</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="9">
         <v>14</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J83" s="9">
         <v>3.9</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K83" s="9">
         <v>22</v>
       </c>
     </row>
@@ -3981,28 +3971,28 @@
       <c r="C84" t="s">
         <v>173</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>1297</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="F84" s="12">
+        <v>95</v>
+      </c>
+      <c r="G84" s="9">
         <v>380</v>
       </c>
-      <c r="F84" s="10">
-        <v>3.7</v>
-      </c>
-      <c r="G84" s="12">
-        <v>95</v>
-      </c>
-      <c r="H84" s="10">
+      <c r="H84" s="9">
         <v>-6</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I84" s="9">
         <v>10</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J84" s="9">
         <v>4.7</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K84" s="9">
         <v>8</v>
       </c>
     </row>
@@ -4016,28 +4006,28 @@
       <c r="C85" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>1260</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="9">
+        <v>5</v>
+      </c>
+      <c r="F85" s="12">
+        <v>110</v>
+      </c>
+      <c r="G85" s="9">
         <v>353</v>
       </c>
-      <c r="F85" s="10">
-        <v>5</v>
-      </c>
-      <c r="G85" s="12">
-        <v>110</v>
-      </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <v>-9</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85" s="9">
         <v>9</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J85" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85" s="9">
         <v>9</v>
       </c>
     </row>
@@ -4051,28 +4041,28 @@
       <c r="C86" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>1333</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F86" s="12">
+        <v>420</v>
+      </c>
+      <c r="G86" s="9">
         <v>1159</v>
       </c>
-      <c r="F86" s="10">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G86" s="12">
-        <v>420</v>
-      </c>
-      <c r="H86" s="10">
+      <c r="H86" s="9">
         <v>-3</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="9">
         <v>17</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J86" s="9">
         <v>3.8</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K86" s="9">
         <v>33</v>
       </c>
     </row>
@@ -4086,28 +4076,28 @@
       <c r="C87" t="s">
         <v>176</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>1347</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="9">
+        <v>26.4</v>
+      </c>
+      <c r="F87" s="12">
+        <v>532</v>
+      </c>
+      <c r="G87" s="9">
         <v>1304</v>
       </c>
-      <c r="F87" s="10">
-        <v>26.4</v>
-      </c>
-      <c r="G87" s="12">
-        <v>532</v>
-      </c>
-      <c r="H87" s="10">
+      <c r="H87" s="9">
         <v>-8</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I87" s="9">
         <v>13</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J87" s="9">
         <v>3.4</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K87" s="9">
         <v>41</v>
       </c>
     </row>
@@ -4121,28 +4111,28 @@
       <c r="C88" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>1335</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="F88" s="12">
+        <v>411</v>
+      </c>
+      <c r="G88" s="9">
         <v>1069</v>
       </c>
-      <c r="F88" s="10">
-        <v>20.3</v>
-      </c>
-      <c r="G88" s="12">
-        <v>411</v>
-      </c>
-      <c r="H88" s="10">
+      <c r="H88" s="9">
         <v>-5</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88" s="9">
         <v>15</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J88" s="9">
         <v>3.9</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K88" s="9">
         <v>32</v>
       </c>
     </row>
@@ -4156,28 +4146,28 @@
       <c r="C89" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>1280</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F89" s="12">
+        <v>95</v>
+      </c>
+      <c r="G89" s="9">
         <v>275</v>
       </c>
-      <c r="F89" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G89" s="12">
-        <v>95</v>
-      </c>
-      <c r="H89" s="10">
+      <c r="H89" s="9">
         <v>-9</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I89" s="9">
         <v>12</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J89" s="9">
         <v>3.5</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K89" s="9">
         <v>8</v>
       </c>
     </row>
@@ -4191,28 +4181,28 @@
       <c r="C90" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>1245</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="9">
+        <v>15</v>
+      </c>
+      <c r="F90" s="12">
+        <v>286</v>
+      </c>
+      <c r="G90" s="9">
         <v>582</v>
       </c>
-      <c r="F90" s="10">
-        <v>15</v>
-      </c>
-      <c r="G90" s="12">
-        <v>286</v>
-      </c>
-      <c r="H90" s="10">
+      <c r="H90" s="9">
         <v>-4</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="9">
         <v>16</v>
       </c>
-      <c r="J90" s="10">
+      <c r="J90" s="9">
         <v>4.7</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K90" s="9">
         <v>21</v>
       </c>
     </row>
@@ -4226,29 +4216,29 @@
       <c r="C91" t="s">
         <v>180</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>1303</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F91" s="12">
+        <v>190</v>
+      </c>
+      <c r="G91" s="9">
         <v>522</v>
       </c>
-      <c r="F91" s="10">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G91" s="12">
-        <v>190</v>
-      </c>
-      <c r="H91" s="10">
+      <c r="H91" s="9">
         <f>--13</f>
         <v>13</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="9">
         <v>8</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J91" s="9">
         <v>2.1</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91" s="9">
         <v>16</v>
       </c>
     </row>
@@ -4262,28 +4252,28 @@
       <c r="C92" t="s">
         <v>181</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>1314</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="9">
+        <v>10.7</v>
+      </c>
+      <c r="F92" s="12">
+        <v>225</v>
+      </c>
+      <c r="G92" s="9">
         <v>658</v>
       </c>
-      <c r="F92" s="10">
-        <v>10.7</v>
-      </c>
-      <c r="G92" s="12">
-        <v>225</v>
-      </c>
-      <c r="H92" s="10">
+      <c r="H92" s="9">
         <v>-6</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92" s="9">
         <v>14</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J92" s="9">
         <v>3.8</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92" s="9">
         <v>18</v>
       </c>
     </row>
@@ -4297,34 +4287,34 @@
       <c r="C93" t="s">
         <v>182</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>1250</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="9">
+        <v>20</v>
+      </c>
+      <c r="F93" s="12">
+        <v>415</v>
+      </c>
+      <c r="G93" s="9">
         <v>1139</v>
       </c>
-      <c r="F93" s="10">
-        <v>20</v>
-      </c>
-      <c r="G93" s="12">
-        <v>415</v>
-      </c>
-      <c r="H93" s="10">
+      <c r="H93" s="9">
         <v>-7</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I93" s="9">
         <v>13</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J93" s="9">
         <v>3.5</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B94" s="2"/>
-      <c r="G94" s="9"/>
+      <c r="F94" s="8"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -4334,8 +4324,8 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
